--- a/testing/Joule Thief Measurments.xlsx
+++ b/testing/Joule Thief Measurments.xlsx
@@ -4,10 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14565" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14565" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Base Resistor Testing" sheetId="1" r:id="rId1"/>
+    <sheet name="LED on-off Voltage" sheetId="2" r:id="rId1"/>
+    <sheet name="Input Current" sheetId="3" r:id="rId2"/>
+    <sheet name="LED Light Output" sheetId="4" r:id="rId3"/>
+    <sheet name="Input Power" sheetId="5" r:id="rId4"/>
+    <sheet name="LED Light Outpu at Input Power" sheetId="6" r:id="rId5"/>
+    <sheet name="Base Resistor Testing" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
   <si>
     <t>Current Sensor:</t>
   </si>
@@ -312,7 +317,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="22">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -405,9 +410,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -430,13 +432,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Voltage Level For Curcuit to Turn on/off at Base Resistor</a:t>
+              <a:t>LED on/off Voltage Vs Base Resistor Value</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Value</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -447,10 +444,10 @@
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Off</c:v>
+            <c:v>LED Turn On</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -484,40 +481,40 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Base Resistor Testing'!$L$4:$L$10</c:f>
+              <c:f>'Base Resistor Testing'!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.4002</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42780000000000001</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46960000000000002</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53779999999999994</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57630000000000003</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58819999999999995</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60970000000000002</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>On</c:v>
+            <c:v>LED Turn Off</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -551,40 +548,40 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Base Resistor Testing'!$M$4:$M$10</c:f>
+              <c:f>'Base Resistor Testing'!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.52</c:v>
+                  <c:v>0.4002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.42780000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52</c:v>
+                  <c:v>0.46960000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54</c:v>
+                  <c:v>0.53779999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.57630000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59</c:v>
+                  <c:v>0.58819999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.60970000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="119413760"/>
-        <c:axId val="119440128"/>
+        <c:axId val="169177472"/>
+        <c:axId val="169189376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119413760"/>
+        <c:axId val="169177472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,12 +614,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119440128"/>
+        <c:crossAx val="169189376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="119440128"/>
+        <c:axId val="169189376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,7 +636,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Voltage</a:t>
+                  <a:t>Turn On/Off Voltage [volts]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -648,7 +645,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119413760"/>
+        <c:crossAx val="169177472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -659,11 +656,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1288,11 +1280,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="119468032"/>
-        <c:axId val="119469568"/>
+        <c:axId val="105540224"/>
+        <c:axId val="105558400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119468032"/>
+        <c:axId val="105540224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,12 +1309,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119469568"/>
+        <c:crossAx val="105558400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="119469568"/>
+        <c:axId val="105558400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1348,7 +1340,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119468032"/>
+        <c:crossAx val="105540224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1359,11 +1351,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1988,11 +1975,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="119920128"/>
-        <c:axId val="119921664"/>
+        <c:axId val="79593856"/>
+        <c:axId val="79595776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119920128"/>
+        <c:axId val="79593856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,12 +2004,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119921664"/>
+        <c:crossAx val="79595776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="119921664"/>
+        <c:axId val="79595776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,7 +2035,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119920128"/>
+        <c:crossAx val="79593856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2059,11 +2046,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2688,11 +2670,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="109827968"/>
-        <c:axId val="109826432"/>
+        <c:axId val="156874240"/>
+        <c:axId val="157608192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109827968"/>
+        <c:axId val="156874240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,12 +2699,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109826432"/>
+        <c:crossAx val="157608192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109826432"/>
+        <c:axId val="157608192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,7 +2730,7 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109827968"/>
+        <c:crossAx val="156874240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2759,11 +2741,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3388,11 +3365,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="155649920"/>
-        <c:axId val="155648000"/>
+        <c:axId val="79206272"/>
+        <c:axId val="79217024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155649920"/>
+        <c:axId val="79206272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,12 +3398,12 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155648000"/>
+        <c:crossAx val="79217024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155648000"/>
+        <c:axId val="79217024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3452,7 +3429,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155649920"/>
+        <c:crossAx val="79206272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3463,33 +3440,75 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656320" cy="6271260"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3502,24 +3521,21 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656320" cy="6271260"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3527,29 +3543,26 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656320" cy="6271260"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3557,29 +3570,26 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656320" cy="6271260"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3587,29 +3597,26 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656320" cy="6271260"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3617,41 +3624,20 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:M10" totalsRowShown="0" headerRowDxfId="22">
-  <autoFilter ref="B3:M10">
-    <filterColumn colId="4"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="9"/>
-  </autoFilter>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:D10" totalsRowShown="0" headerRowDxfId="21">
+  <autoFilter ref="B3:D10"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="Base Resistor [Ω]"/>
-    <tableColumn id="9" name="Switching Frequency [kHz]"/>
-    <tableColumn id="2" name="Input Voltage [volts]"/>
-    <tableColumn id="3" name="Input Current [mA]"/>
-    <tableColumn id="12" name="Input Power [mW]" dataDxfId="21">
-      <calculatedColumnFormula>(D4 * (E4/1000))*1000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="LED Current Sensor Voltage [volts]"/>
-    <tableColumn id="5" name="LED Current [mA]">
-      <calculatedColumnFormula>($P$5*G4)*1000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="LED Light Level [volts]"/>
-    <tableColumn id="10" name="TEMT6000 Collector Current [uA]">
-      <calculatedColumnFormula>(I4/$P$9)*10^6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" name="LED Light Level [lx]">
-      <calculatedColumnFormula>J4*2</calculatedColumnFormula>
-    </tableColumn>
     <tableColumn id="7" name="Turnoff Voltage [volts]"/>
     <tableColumn id="8" name="Turnon Voltage [volts]"/>
   </tableColumns>
@@ -3674,11 +3660,11 @@
     </tableColumn>
     <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
     <tableColumn id="6" name="LED Current [mA]">
-      <calculatedColumnFormula>($P$5*G13)*1000</calculatedColumnFormula>
+      <calculatedColumnFormula>($N$5*G13)*1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="LED Light Level [volts]"/>
     <tableColumn id="8" name="TEMT6000 Collector Current [uA]">
-      <calculatedColumnFormula>(I13/$P$9)*10^6</calculatedColumnFormula>
+      <calculatedColumnFormula>(I13/$N$9)*10^6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="LED Light Level [lx]">
       <calculatedColumnFormula>J13*2</calculatedColumnFormula>
@@ -3703,11 +3689,11 @@
     </tableColumn>
     <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
     <tableColumn id="6" name="LED Current [mA]">
-      <calculatedColumnFormula>($P$5*G25)*1000</calculatedColumnFormula>
+      <calculatedColumnFormula>($N$5*G25)*1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="LED Light Level [volts]"/>
     <tableColumn id="8" name="TEMT6000 Collector Current [uA]">
-      <calculatedColumnFormula>(I25/$P$9)*10^6</calculatedColumnFormula>
+      <calculatedColumnFormula>(I25/$N$9)*10^6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="LED Light Level [lx]">
       <calculatedColumnFormula>J25*2</calculatedColumnFormula>
@@ -3732,11 +3718,11 @@
     </tableColumn>
     <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
     <tableColumn id="6" name="LED Current [mA]">
-      <calculatedColumnFormula>($P$5*G37)*1000</calculatedColumnFormula>
+      <calculatedColumnFormula>($N$5*G37)*1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="LED Light Level [volts]"/>
     <tableColumn id="8" name="TEMT6000 Collector Current [uA]">
-      <calculatedColumnFormula>(I37/$P$9)*10^6</calculatedColumnFormula>
+      <calculatedColumnFormula>(I37/$N$9)*10^6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="LED Light Level [lx]">
       <calculatedColumnFormula>J37*2</calculatedColumnFormula>
@@ -3761,11 +3747,11 @@
     </tableColumn>
     <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
     <tableColumn id="6" name="LED Current [mA]">
-      <calculatedColumnFormula>($P$5*G50)*1000</calculatedColumnFormula>
+      <calculatedColumnFormula>($N$5*G50)*1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="LED Light Level [volts]"/>
     <tableColumn id="8" name="TEMT6000 Collector Current [uA]">
-      <calculatedColumnFormula>(I50/$P$9)*10^6</calculatedColumnFormula>
+      <calculatedColumnFormula>(I50/$N$9)*10^6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="LED Light Level [lx]">
       <calculatedColumnFormula>J50*2</calculatedColumnFormula>
@@ -3790,11 +3776,11 @@
     </tableColumn>
     <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
     <tableColumn id="6" name="LED Current [mA]">
-      <calculatedColumnFormula>($P$5*G62)*1000</calculatedColumnFormula>
+      <calculatedColumnFormula>($N$5*G62)*1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="LED Light Level [volts]"/>
     <tableColumn id="8" name="TEMT6000 Collector Current [uA]">
-      <calculatedColumnFormula>(I62/$P$9)*10^6</calculatedColumnFormula>
+      <calculatedColumnFormula>(I62/$N$9)*10^6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="LED Light Level [lx]">
       <calculatedColumnFormula>J62*2</calculatedColumnFormula>
@@ -3819,11 +3805,11 @@
     </tableColumn>
     <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
     <tableColumn id="6" name="LED Current [mA]">
-      <calculatedColumnFormula>($P$5*G74)*1000</calculatedColumnFormula>
+      <calculatedColumnFormula>($N$5*G74)*1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="LED Light Level [volts]"/>
     <tableColumn id="8" name="TEMT6000 Collector Current [uA]">
-      <calculatedColumnFormula>(I74/$P$9)*10^6</calculatedColumnFormula>
+      <calculatedColumnFormula>(I74/$N$9)*10^6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="LED Light Level [lx]">
       <calculatedColumnFormula>J74*2</calculatedColumnFormula>
@@ -3848,11 +3834,11 @@
     </tableColumn>
     <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
     <tableColumn id="6" name="LED Current [mA]">
-      <calculatedColumnFormula>($P$5*G86)*1000</calculatedColumnFormula>
+      <calculatedColumnFormula>($N$5*G86)*1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="LED Light Level [volts]"/>
     <tableColumn id="8" name="TEMT6000 Collector Current [uA]">
-      <calculatedColumnFormula>(I86/$P$9)*10^6</calculatedColumnFormula>
+      <calculatedColumnFormula>(I86/$N$9)*10^6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="LED Light Level [lx]">
       <calculatedColumnFormula>J86*2</calculatedColumnFormula>
@@ -4184,40 +4170,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q96"/>
+  <dimension ref="A2:O96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
     <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
     <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="14.25" customWidth="1"/>
-    <col min="14" max="14" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:15">
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
       <c r="N2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="30" customHeight="1">
+    <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
@@ -4225,386 +4212,142 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>200</v>
+      </c>
       <c r="O3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>200</v>
-      </c>
-      <c r="Q3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:15">
       <c r="A4" s="6"/>
       <c r="B4">
         <v>1000</v>
       </c>
       <c r="C4">
-        <v>102.3</v>
+        <v>0.4002</v>
       </c>
       <c r="D4">
-        <v>0.80259999999999998</v>
-      </c>
-      <c r="E4">
-        <v>36.83</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" ref="F4:F10" si="0">(D4 * (E4/1000))*1000</f>
-        <v>29.559758000000002</v>
-      </c>
-      <c r="G4">
-        <v>0.1038</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H10" si="1">($P$5*G4)*1000</f>
-        <v>5.19</v>
-      </c>
-      <c r="I4">
-        <v>2.859</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J10" si="2">(I4/$P$9)*10^6</f>
-        <v>285.90000000000003</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K10" si="3">J4*2</f>
-        <v>571.80000000000007</v>
-      </c>
-      <c r="L4">
-        <v>0.4002</v>
-      </c>
-      <c r="M4">
         <v>0.52</v>
       </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>0.1</v>
+      </c>
       <c r="O4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <v>0.1</v>
-      </c>
-      <c r="Q4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:15">
       <c r="A5" s="6"/>
       <c r="B5">
         <v>1500</v>
       </c>
       <c r="C5">
-        <v>109.2</v>
+        <v>0.42780000000000001</v>
       </c>
       <c r="D5">
-        <v>0.80510000000000004</v>
-      </c>
-      <c r="E5">
-        <v>34.15</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>27.494165000000002</v>
-      </c>
-      <c r="G5">
-        <v>9.7299999999999998E-2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>4.8650000000000002</v>
-      </c>
-      <c r="I5">
-        <v>2.7320000000000002</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>273.20000000000005</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="3"/>
-        <v>546.40000000000009</v>
-      </c>
-      <c r="L5">
-        <v>0.42780000000000001</v>
-      </c>
-      <c r="M5">
         <v>0.51</v>
       </c>
-      <c r="O5" t="s">
+      <c r="M5" t="s">
         <v>6</v>
       </c>
-      <c r="P5">
+      <c r="N5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:15">
       <c r="A6" s="6"/>
       <c r="B6">
         <v>2200</v>
       </c>
       <c r="C6">
-        <v>119.4</v>
+        <v>0.46960000000000002</v>
       </c>
       <c r="D6">
-        <v>0.80120000000000002</v>
-      </c>
-      <c r="E6">
-        <v>30.69</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>24.588828000000003</v>
-      </c>
-      <c r="G6">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>4.3749999999999991</v>
-      </c>
-      <c r="I6">
-        <v>2.5249999999999999</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
-        <v>252.5</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="3"/>
-        <v>505</v>
-      </c>
-      <c r="L6">
-        <v>0.46960000000000002</v>
-      </c>
-      <c r="M6">
         <v>0.52</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:15">
       <c r="A7" s="6"/>
       <c r="B7">
         <v>3300</v>
       </c>
       <c r="C7">
-        <v>133</v>
+        <v>0.53779999999999994</v>
       </c>
       <c r="D7">
-        <v>0.80279999999999996</v>
-      </c>
-      <c r="E7">
-        <v>27.06</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>21.723767999999996</v>
-      </c>
-      <c r="G7">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>3.8600000000000008</v>
-      </c>
-      <c r="I7">
-        <v>2.2970000000000002</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>229.70000000000002</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
-        <v>459.40000000000003</v>
-      </c>
-      <c r="L7">
-        <v>0.53779999999999994</v>
-      </c>
-      <c r="M7">
         <v>0.54</v>
       </c>
-      <c r="O7" t="s">
+      <c r="M7" t="s">
         <v>14</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:15">
       <c r="A8" s="6"/>
       <c r="B8">
         <v>4700</v>
       </c>
       <c r="C8">
-        <v>142.19999999999999</v>
+        <v>0.57630000000000003</v>
       </c>
       <c r="D8">
-        <v>0.80389999999999995</v>
-      </c>
-      <c r="E8">
-        <v>20.558</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>16.526576200000001</v>
-      </c>
-      <c r="G8">
-        <v>5.6300000000000003E-2</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>2.8150000000000004</v>
-      </c>
-      <c r="I8">
-        <v>1.7549999999999999</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
-        <v>175.49999999999997</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
-        <v>350.99999999999994</v>
-      </c>
-      <c r="L8">
-        <v>0.57630000000000003</v>
-      </c>
-      <c r="M8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="O8" t="s">
+      <c r="M8" t="s">
         <v>16</v>
       </c>
-      <c r="P8" t="s">
+      <c r="N8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:15">
       <c r="A9" s="6"/>
       <c r="B9">
         <v>5600</v>
       </c>
       <c r="C9">
-        <v>148.9</v>
+        <v>0.58819999999999995</v>
       </c>
       <c r="D9">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="E9">
-        <v>17.809999999999999</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>14.33705</v>
-      </c>
-      <c r="G9">
-        <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>2.395</v>
-      </c>
-      <c r="I9">
-        <v>1.5209999999999999</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
-        <v>152.1</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
-        <v>304.2</v>
-      </c>
-      <c r="L9">
-        <v>0.58819999999999995</v>
-      </c>
-      <c r="M9">
         <v>0.59</v>
       </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>10000</v>
+      </c>
       <c r="O9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9">
-        <v>10000</v>
-      </c>
-      <c r="Q9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:15">
       <c r="A10" s="6"/>
       <c r="B10">
         <v>6800</v>
       </c>
       <c r="C10">
-        <v>161</v>
+        <v>0.60970000000000002</v>
       </c>
       <c r="D10">
-        <v>0.80559999999999998</v>
-      </c>
-      <c r="E10">
-        <v>15.164</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>12.216118399999999</v>
-      </c>
-      <c r="G10">
-        <v>3.9300000000000002E-2</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>1.9650000000000001</v>
-      </c>
-      <c r="I10">
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
-        <v>127.49999999999999</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="L10">
-        <v>0.60970000000000002</v>
-      </c>
-      <c r="M10">
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:15">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4613,7 +4356,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="30" customHeight="1">
+    <row r="12" spans="1:15" ht="30" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -4648,7 +4391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:15">
       <c r="A13" s="5"/>
       <c r="B13">
         <v>1000</v>
@@ -4663,29 +4406,29 @@
         <v>129.62</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" ref="F13:F22" si="4">(D13 * (E13/1000))*1000</f>
+        <f t="shared" ref="F13:F22" si="0">(D13 * (E13/1000))*1000</f>
         <v>195.11698600000003</v>
       </c>
       <c r="G13">
         <v>0.57999999999999996</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H22" si="5">($P$5*G13)*1000</f>
+        <f>($N$5*G13)*1000</f>
         <v>28.999999999999996</v>
       </c>
       <c r="I13">
         <v>3.181</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13:J22" si="6">(I13/$P$9)*10^6</f>
+        <f>(I13/$N$9)*10^6</f>
         <v>318.09999999999997</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13:K22" si="7">J13*2</f>
+        <f t="shared" ref="K13:K22" si="1">J13*2</f>
         <v>636.19999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:15">
       <c r="A14" s="5"/>
       <c r="B14">
         <v>1000</v>
@@ -4700,29 +4443,29 @@
         <v>112.94</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>158.307998</v>
       </c>
       <c r="G14">
         <v>0.47449999999999998</v>
       </c>
       <c r="H14">
-        <f t="shared" si="5"/>
+        <f>($N$5*G14)*1000</f>
         <v>23.724999999999998</v>
       </c>
       <c r="I14">
         <v>3.1749999999999998</v>
       </c>
       <c r="J14">
-        <f t="shared" si="6"/>
+        <f>(I14/$N$9)*10^6</f>
         <v>317.49999999999994</v>
       </c>
       <c r="K14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>634.99999999999989</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:15">
       <c r="A15" s="5"/>
       <c r="B15">
         <v>1000</v>
@@ -4737,29 +4480,29 @@
         <v>99.9</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>130.46940000000001</v>
       </c>
       <c r="G15">
         <v>0.39400000000000002</v>
       </c>
       <c r="H15">
-        <f t="shared" si="5"/>
+        <f>($N$5*G15)*1000</f>
         <v>19.700000000000003</v>
       </c>
       <c r="I15">
         <v>3.169</v>
       </c>
       <c r="J15">
-        <f t="shared" si="6"/>
+        <f>(I15/$N$9)*10^6</f>
         <v>316.89999999999998</v>
       </c>
       <c r="K15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>633.79999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:15">
       <c r="A16" s="5"/>
       <c r="B16">
         <v>1000</v>
@@ -4774,25 +4517,25 @@
         <v>88.09</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>105.875371</v>
       </c>
       <c r="G16">
         <v>0.32</v>
       </c>
       <c r="H16">
-        <f t="shared" si="5"/>
+        <f>($N$5*G16)*1000</f>
         <v>16</v>
       </c>
       <c r="I16">
         <v>3.1659999999999999</v>
       </c>
       <c r="J16">
-        <f t="shared" si="6"/>
+        <f>(I16/$N$9)*10^6</f>
         <v>316.60000000000002</v>
       </c>
       <c r="K16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>633.20000000000005</v>
       </c>
     </row>
@@ -4811,25 +4554,25 @@
         <v>77.02</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>84.891443999999993</v>
       </c>
       <c r="G17">
         <v>0.26200000000000001</v>
       </c>
       <c r="H17">
-        <f t="shared" si="5"/>
+        <f>($N$5*G17)*1000</f>
         <v>13.100000000000001</v>
       </c>
       <c r="I17">
         <v>3.1640000000000001</v>
       </c>
       <c r="J17">
-        <f t="shared" si="6"/>
+        <f>(I17/$N$9)*10^6</f>
         <v>316.39999999999998</v>
       </c>
       <c r="K17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>632.79999999999995</v>
       </c>
     </row>
@@ -4848,25 +4591,25 @@
         <v>62.96</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>63.129991999999994</v>
       </c>
       <c r="G18">
         <v>0.20050000000000001</v>
       </c>
       <c r="H18">
-        <f t="shared" si="5"/>
+        <f>($N$5*G18)*1000</f>
         <v>10.025</v>
       </c>
       <c r="I18">
         <v>3.16</v>
       </c>
       <c r="J18">
-        <f t="shared" si="6"/>
+        <f>(I18/$N$9)*10^6</f>
         <v>316.00000000000006</v>
       </c>
       <c r="K18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>632.00000000000011</v>
       </c>
     </row>
@@ -4885,25 +4628,25 @@
         <v>46.12</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41.627911999999995</v>
       </c>
       <c r="G19">
         <v>0.13900000000000001</v>
       </c>
       <c r="H19">
-        <f t="shared" si="5"/>
+        <f>($N$5*G19)*1000</f>
         <v>6.9500000000000011</v>
       </c>
       <c r="I19">
         <v>3.137</v>
       </c>
       <c r="J19">
-        <f t="shared" si="6"/>
+        <f>(I19/$N$9)*10^6</f>
         <v>313.7</v>
       </c>
       <c r="K19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>627.4</v>
       </c>
     </row>
@@ -4922,25 +4665,25 @@
         <v>36.36</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>29.091635999999998</v>
       </c>
       <c r="G20">
         <v>0.10299999999999999</v>
       </c>
       <c r="H20">
-        <f t="shared" si="5"/>
+        <f>($N$5*G20)*1000</f>
         <v>5.15</v>
       </c>
       <c r="I20">
         <v>2.8410000000000002</v>
       </c>
       <c r="J20">
-        <f t="shared" si="6"/>
+        <f>(I20/$N$9)*10^6</f>
         <v>284.10000000000002</v>
       </c>
       <c r="K20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>568.20000000000005</v>
       </c>
     </row>
@@ -4959,25 +4702,25 @@
         <v>28.7</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>20.233499999999999</v>
       </c>
       <c r="G21">
         <v>7.4300000000000005E-2</v>
       </c>
       <c r="H21">
-        <f t="shared" si="5"/>
+        <f>($N$5*G21)*1000</f>
         <v>3.7150000000000003</v>
       </c>
       <c r="I21">
         <v>2.181</v>
       </c>
       <c r="J21">
-        <f t="shared" si="6"/>
+        <f>(I21/$N$9)*10^6</f>
         <v>218.10000000000002</v>
       </c>
       <c r="K21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>436.20000000000005</v>
       </c>
     </row>
@@ -4996,25 +4739,25 @@
         <v>20.472999999999999</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>12.334982499999999</v>
       </c>
       <c r="G22">
         <v>4.7E-2</v>
       </c>
       <c r="H22">
-        <f t="shared" si="5"/>
+        <f>($N$5*G22)*1000</f>
         <v>2.35</v>
       </c>
       <c r="I22">
         <v>1.4570000000000001</v>
       </c>
       <c r="J22">
-        <f t="shared" si="6"/>
+        <f>(I22/$N$9)*10^6</f>
         <v>145.70000000000002</v>
       </c>
       <c r="K22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>291.40000000000003</v>
       </c>
     </row>
@@ -5068,25 +4811,25 @@
         <v>111.5</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" ref="F25:F34" si="8">(D25 * (E25/1000))*1000</f>
+        <f t="shared" ref="F25:F34" si="2">(D25 * (E25/1000))*1000</f>
         <v>168.14200000000002</v>
       </c>
       <c r="G25">
         <v>0.54</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H34" si="9">($P$5*G25)*1000</f>
+        <f>($N$5*G25)*1000</f>
         <v>27.000000000000004</v>
       </c>
       <c r="I25">
         <v>3.1840000000000002</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25:J34" si="10">(I25/$P$9)*10^6</f>
+        <f>(I25/$N$9)*10^6</f>
         <v>318.40000000000003</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25:K34" si="11">J25*2</f>
+        <f t="shared" ref="K25:K34" si="3">J25*2</f>
         <v>636.80000000000007</v>
       </c>
     </row>
@@ -5105,25 +4848,25 @@
         <v>97.8</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>137.5068</v>
       </c>
       <c r="G26">
         <v>0.44400000000000001</v>
       </c>
       <c r="H26">
-        <f t="shared" si="9"/>
+        <f>($N$5*G26)*1000</f>
         <v>22.2</v>
       </c>
       <c r="I26">
         <v>3.1789999999999998</v>
       </c>
       <c r="J26">
-        <f t="shared" si="10"/>
+        <f>(I26/$N$9)*10^6</f>
         <v>317.89999999999998</v>
       </c>
       <c r="K26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>635.79999999999995</v>
       </c>
     </row>
@@ -5142,25 +4885,25 @@
         <v>86.6</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>112.66659999999999</v>
       </c>
       <c r="G27">
         <v>0.36399999999999999</v>
       </c>
       <c r="H27">
-        <f t="shared" si="9"/>
+        <f>($N$5*G27)*1000</f>
         <v>18.2</v>
       </c>
       <c r="I27">
         <v>3.1749999999999998</v>
       </c>
       <c r="J27">
-        <f t="shared" si="10"/>
+        <f>(I27/$N$9)*10^6</f>
         <v>317.49999999999994</v>
       </c>
       <c r="K27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>634.99999999999989</v>
       </c>
     </row>
@@ -5179,25 +4922,25 @@
         <v>77.5</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>93.542500000000004</v>
       </c>
       <c r="G28">
         <v>0.30199999999999999</v>
       </c>
       <c r="H28">
-        <f t="shared" si="9"/>
+        <f>($N$5*G28)*1000</f>
         <v>15.100000000000001</v>
       </c>
       <c r="I28">
         <v>3.1720000000000002</v>
       </c>
       <c r="J28">
-        <f t="shared" si="10"/>
+        <f>(I28/$N$9)*10^6</f>
         <v>317.2</v>
       </c>
       <c r="K28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>634.4</v>
       </c>
     </row>
@@ -5216,25 +4959,25 @@
         <v>66.7</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>73.836900000000014</v>
       </c>
       <c r="G29">
         <v>0.24099999999999999</v>
       </c>
       <c r="H29">
-        <f t="shared" si="9"/>
+        <f>($N$5*G29)*1000</f>
         <v>12.05</v>
       </c>
       <c r="I29">
         <v>3.169</v>
       </c>
       <c r="J29">
-        <f t="shared" si="10"/>
+        <f>(I29/$N$9)*10^6</f>
         <v>316.89999999999998</v>
       </c>
       <c r="K29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>633.79999999999995</v>
       </c>
     </row>
@@ -5253,25 +4996,25 @@
         <v>51.2</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>51.3536</v>
       </c>
       <c r="G30">
         <v>0.17100000000000001</v>
       </c>
       <c r="H30">
-        <f t="shared" si="9"/>
+        <f>($N$5*G30)*1000</f>
         <v>8.5500000000000007</v>
       </c>
       <c r="I30">
         <v>3.1560000000000001</v>
       </c>
       <c r="J30">
-        <f t="shared" si="10"/>
+        <f>(I30/$N$9)*10^6</f>
         <v>315.60000000000002</v>
       </c>
       <c r="K30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>631.20000000000005</v>
       </c>
     </row>
@@ -5290,25 +5033,25 @@
         <v>41.1</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>37.031100000000002</v>
       </c>
       <c r="G31">
         <v>0.128</v>
       </c>
       <c r="H31">
-        <f t="shared" si="9"/>
+        <f>($N$5*G31)*1000</f>
         <v>6.4</v>
       </c>
       <c r="I31">
         <v>3.1230000000000002</v>
       </c>
       <c r="J31">
-        <f t="shared" si="10"/>
+        <f>(I31/$N$9)*10^6</f>
         <v>312.3</v>
       </c>
       <c r="K31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>624.6</v>
       </c>
     </row>
@@ -5327,25 +5070,25 @@
         <v>33.700000000000003</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>27.027400000000004</v>
       </c>
       <c r="G32">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="H32">
-        <f t="shared" si="9"/>
+        <f>($N$5*G32)*1000</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="I32">
         <v>2.7050000000000001</v>
       </c>
       <c r="J32">
-        <f t="shared" si="10"/>
+        <f>(I32/$N$9)*10^6</f>
         <v>270.5</v>
       </c>
       <c r="K32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>541</v>
       </c>
     </row>
@@ -5364,25 +5107,25 @@
         <v>26.6</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>18.646599999999999</v>
       </c>
       <c r="G33">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="H33">
-        <f t="shared" si="9"/>
+        <f>($N$5*G33)*1000</f>
         <v>3.4000000000000004</v>
       </c>
       <c r="I33">
         <v>2.0299999999999998</v>
       </c>
       <c r="J33">
-        <f t="shared" si="10"/>
+        <f>(I33/$N$9)*10^6</f>
         <v>202.99999999999997</v>
       </c>
       <c r="K33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>405.99999999999994</v>
       </c>
     </row>
@@ -5401,25 +5144,25 @@
         <v>19.2</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>11.577599999999999</v>
       </c>
       <c r="G34">
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="9"/>
+        <f>($N$5*G34)*1000</f>
         <v>2.15</v>
       </c>
       <c r="I34">
         <v>1.349</v>
       </c>
       <c r="J34">
-        <f t="shared" si="10"/>
+        <f>(I34/$N$9)*10^6</f>
         <v>134.9</v>
       </c>
       <c r="K34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>269.8</v>
       </c>
     </row>
@@ -5481,25 +5224,25 @@
         <v>93.6</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" ref="F37:F46" si="12">(D37 * (E37/1000))*1000</f>
+        <f t="shared" ref="F37:F46" si="4">(D37 * (E37/1000))*1000</f>
         <v>140.5872</v>
       </c>
       <c r="G37">
         <v>0.48399999999999999</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:H46" si="13">($P$5*G37)*1000</f>
+        <f>($N$5*G37)*1000</f>
         <v>24.2</v>
       </c>
       <c r="I37">
         <v>3.1869999999999998</v>
       </c>
       <c r="J37">
-        <f t="shared" ref="J37:J46" si="14">(I37/$P$9)*10^6</f>
+        <f>(I37/$N$9)*10^6</f>
         <v>318.7</v>
       </c>
       <c r="K37">
-        <f t="shared" ref="K37:K46" si="15">J37*2</f>
+        <f t="shared" ref="K37:K46" si="5">J37*2</f>
         <v>637.4</v>
       </c>
     </row>
@@ -5518,25 +5261,25 @@
         <v>84.2</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>118.55359999999999</v>
       </c>
       <c r="G38">
         <v>0.40699999999999997</v>
       </c>
       <c r="H38">
-        <f t="shared" si="13"/>
+        <f>($N$5*G38)*1000</f>
         <v>20.350000000000001</v>
       </c>
       <c r="I38">
         <v>3.1840000000000002</v>
       </c>
       <c r="J38">
-        <f t="shared" si="14"/>
+        <f>(I38/$N$9)*10^6</f>
         <v>318.40000000000003</v>
       </c>
       <c r="K38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>636.80000000000007</v>
       </c>
     </row>
@@ -5555,25 +5298,25 @@
         <v>75.099999999999994</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>97.930400000000006</v>
       </c>
       <c r="G39">
         <v>0.33500000000000002</v>
       </c>
       <c r="H39">
-        <f t="shared" si="13"/>
+        <f>($N$5*G39)*1000</f>
         <v>16.75</v>
       </c>
       <c r="I39">
         <v>3.18</v>
       </c>
       <c r="J39">
-        <f t="shared" si="14"/>
+        <f>(I39/$N$9)*10^6</f>
         <v>318.00000000000006</v>
       </c>
       <c r="K39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>636.00000000000011</v>
       </c>
     </row>
@@ -5592,25 +5335,25 @@
         <v>66.099999999999994</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>79.848799999999983</v>
       </c>
       <c r="G40">
         <v>0.27200000000000002</v>
       </c>
       <c r="H40">
-        <f t="shared" si="13"/>
+        <f>($N$5*G40)*1000</f>
         <v>13.600000000000001</v>
       </c>
       <c r="I40">
         <v>3.1760000000000002</v>
       </c>
       <c r="J40">
-        <f t="shared" si="14"/>
+        <f>(I40/$N$9)*10^6</f>
         <v>317.60000000000002</v>
       </c>
       <c r="K40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>635.20000000000005</v>
       </c>
     </row>
@@ -5629,25 +5372,25 @@
         <v>53.4</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>59.006999999999998</v>
       </c>
       <c r="G41">
         <v>0.20100000000000001</v>
       </c>
       <c r="H41">
-        <f t="shared" si="13"/>
+        <f>($N$5*G41)*1000</f>
         <v>10.050000000000002</v>
       </c>
       <c r="I41">
         <v>3.1669999999999998</v>
       </c>
       <c r="J41">
-        <f t="shared" si="14"/>
+        <f>(I41/$N$9)*10^6</f>
         <v>316.7</v>
       </c>
       <c r="K41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>633.4</v>
       </c>
     </row>
@@ -5666,25 +5409,25 @@
         <v>43.3</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>43.343299999999992</v>
       </c>
       <c r="G42">
         <v>0.15</v>
       </c>
       <c r="H42">
-        <f t="shared" si="13"/>
+        <f>($N$5*G42)*1000</f>
         <v>7.5</v>
       </c>
       <c r="I42">
         <v>3.149</v>
       </c>
       <c r="J42">
-        <f t="shared" si="14"/>
+        <f>(I42/$N$9)*10^6</f>
         <v>314.90000000000003</v>
       </c>
       <c r="K42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>629.80000000000007</v>
       </c>
     </row>
@@ -5703,25 +5446,25 @@
         <v>37</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>33.448</v>
       </c>
       <c r="G43">
         <v>0.11799999999999999</v>
       </c>
       <c r="H43">
-        <f t="shared" si="13"/>
+        <f>($N$5*G43)*1000</f>
         <v>5.8999999999999995</v>
       </c>
       <c r="I43">
         <v>3.0950000000000002</v>
       </c>
       <c r="J43">
-        <f t="shared" si="14"/>
+        <f>(I43/$N$9)*10^6</f>
         <v>309.50000000000006</v>
       </c>
       <c r="K43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>619.00000000000011</v>
       </c>
     </row>
@@ -5740,25 +5483,25 @@
         <v>30.8</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>24.8248</v>
       </c>
       <c r="G44">
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="H44">
-        <f t="shared" si="13"/>
+        <f>($N$5*G44)*1000</f>
         <v>4.45</v>
       </c>
       <c r="I44">
         <v>2.5550000000000002</v>
       </c>
       <c r="J44">
-        <f t="shared" si="14"/>
+        <f>(I44/$N$9)*10^6</f>
         <v>255.50000000000003</v>
       </c>
       <c r="K44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>511.00000000000006</v>
       </c>
     </row>
@@ -5777,25 +5520,25 @@
         <v>24.9</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>17.454899999999999</v>
       </c>
       <c r="G45">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="H45">
-        <f t="shared" si="13"/>
+        <f>($N$5*G45)*1000</f>
         <v>3.0500000000000003</v>
       </c>
       <c r="I45">
         <v>1.8620000000000001</v>
       </c>
       <c r="J45">
-        <f t="shared" si="14"/>
+        <f>(I45/$N$9)*10^6</f>
         <v>186.2</v>
       </c>
       <c r="K45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>372.4</v>
       </c>
     </row>
@@ -5814,25 +5557,25 @@
         <v>17</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>10.200000000000001</v>
       </c>
       <c r="G46">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="H46">
-        <f t="shared" si="13"/>
+        <f>($N$5*G46)*1000</f>
         <v>1.85</v>
       </c>
       <c r="I46">
         <v>1.1679999999999999</v>
       </c>
       <c r="J46">
-        <f t="shared" si="14"/>
+        <f>(I46/$N$9)*10^6</f>
         <v>116.8</v>
       </c>
       <c r="K46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>233.6</v>
       </c>
     </row>
@@ -5894,25 +5637,25 @@
         <v>80.3</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" ref="F50:F59" si="16">(D50 * (E50/1000))*1000</f>
+        <f t="shared" ref="F50:F59" si="6">(D50 * (E50/1000))*1000</f>
         <v>121.57419999999999</v>
       </c>
       <c r="G50">
         <v>0.443</v>
       </c>
       <c r="H50">
-        <f t="shared" ref="H50:H59" si="17">($P$5*G50)*1000</f>
+        <f>($N$5*G50)*1000</f>
         <v>22.150000000000002</v>
       </c>
       <c r="I50">
         <v>3.1920000000000002</v>
       </c>
       <c r="J50">
-        <f t="shared" ref="J50:J59" si="18">(I50/$P$9)*10^6</f>
+        <f>(I50/$N$9)*10^6</f>
         <v>319.2</v>
       </c>
       <c r="K50">
-        <f t="shared" ref="K50:K59" si="19">J50*2</f>
+        <f t="shared" ref="K50:K59" si="7">J50*2</f>
         <v>638.4</v>
       </c>
     </row>
@@ -5931,25 +5674,25 @@
         <v>71.3</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>99.962599999999995</v>
       </c>
       <c r="G51">
         <v>0.36199999999999999</v>
       </c>
       <c r="H51">
-        <f t="shared" si="17"/>
+        <f>($N$5*G51)*1000</f>
         <v>18.100000000000001</v>
       </c>
       <c r="I51">
         <v>3.1880000000000002</v>
       </c>
       <c r="J51">
-        <f t="shared" si="18"/>
+        <f>(I51/$N$9)*10^6</f>
         <v>318.8</v>
       </c>
       <c r="K51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>637.6</v>
       </c>
     </row>
@@ -5968,25 +5711,25 @@
         <v>62.7</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>81.948900000000009</v>
       </c>
       <c r="G52">
         <v>0.29199999999999998</v>
       </c>
       <c r="H52">
-        <f t="shared" si="17"/>
+        <f>($N$5*G52)*1000</f>
         <v>14.6</v>
       </c>
       <c r="I52">
         <v>3.1829999999999998</v>
       </c>
       <c r="J52">
-        <f t="shared" si="18"/>
+        <f>(I52/$N$9)*10^6</f>
         <v>318.3</v>
       </c>
       <c r="K52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>636.6</v>
       </c>
     </row>
@@ -6005,25 +5748,25 @@
         <v>52</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>62.764000000000003</v>
       </c>
       <c r="G53">
         <v>0.224</v>
       </c>
       <c r="H53">
-        <f t="shared" si="17"/>
+        <f>($N$5*G53)*1000</f>
         <v>11.200000000000001</v>
       </c>
       <c r="I53">
         <v>3.1749999999999998</v>
       </c>
       <c r="J53">
-        <f t="shared" si="18"/>
+        <f>(I53/$N$9)*10^6</f>
         <v>317.49999999999994</v>
       </c>
       <c r="K53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>634.99999999999989</v>
       </c>
     </row>
@@ -6042,25 +5785,25 @@
         <v>42.7</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>47.226200000000006</v>
       </c>
       <c r="G54">
         <v>0.16800000000000001</v>
       </c>
       <c r="H54">
-        <f t="shared" si="17"/>
+        <f>($N$5*G54)*1000</f>
         <v>8.4</v>
       </c>
       <c r="I54">
         <v>3.16</v>
       </c>
       <c r="J54">
-        <f t="shared" si="18"/>
+        <f>(I54/$N$9)*10^6</f>
         <v>316.00000000000006</v>
       </c>
       <c r="K54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>632.00000000000011</v>
       </c>
     </row>
@@ -6079,25 +5822,25 @@
         <v>37.5</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>37.65</v>
       </c>
       <c r="G55">
         <v>0.13400000000000001</v>
       </c>
       <c r="H55">
-        <f t="shared" si="17"/>
+        <f>($N$5*G55)*1000</f>
         <v>6.7000000000000011</v>
       </c>
       <c r="I55">
         <v>3.137</v>
       </c>
       <c r="J55">
-        <f t="shared" si="18"/>
+        <f>(I55/$N$9)*10^6</f>
         <v>313.7</v>
       </c>
       <c r="K55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>627.4</v>
       </c>
     </row>
@@ -6116,25 +5859,25 @@
         <v>32.5</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>29.51</v>
       </c>
       <c r="G56">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="H56">
-        <f t="shared" si="17"/>
+        <f>($N$5*G56)*1000</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="I56">
         <v>2.7469999999999999</v>
       </c>
       <c r="J56">
-        <f t="shared" si="18"/>
+        <f>(I56/$N$9)*10^6</f>
         <v>274.7</v>
       </c>
       <c r="K56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>549.4</v>
       </c>
     </row>
@@ -6153,25 +5896,25 @@
         <v>26.4</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>21.2256</v>
       </c>
       <c r="G57">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="H57">
-        <f t="shared" si="17"/>
+        <f>($N$5*G57)*1000</f>
         <v>3.8</v>
       </c>
       <c r="I57">
         <v>2.2570000000000001</v>
       </c>
       <c r="J57">
-        <f t="shared" si="18"/>
+        <f>(I57/$N$9)*10^6</f>
         <v>225.70000000000002</v>
       </c>
       <c r="K57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>451.40000000000003</v>
       </c>
     </row>
@@ -6190,25 +5933,25 @@
         <v>20.7</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>14.6349</v>
       </c>
       <c r="G58">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="H58">
-        <f t="shared" si="17"/>
+        <f>($N$5*G58)*1000</f>
         <v>2.6</v>
       </c>
       <c r="I58">
         <v>1.619</v>
       </c>
       <c r="J58">
-        <f t="shared" si="18"/>
+        <f>(I58/$N$9)*10^6</f>
         <v>161.9</v>
       </c>
       <c r="K58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>323.8</v>
       </c>
     </row>
@@ -6227,25 +5970,25 @@
         <v>13.4</v>
       </c>
       <c r="F59" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>8.0668000000000006</v>
       </c>
       <c r="G59">
         <v>2.7E-2</v>
       </c>
       <c r="H59">
-        <f t="shared" si="17"/>
+        <f>($N$5*G59)*1000</f>
         <v>1.35</v>
       </c>
       <c r="I59">
         <v>0.877</v>
       </c>
       <c r="J59">
-        <f t="shared" si="18"/>
+        <f>(I59/$N$9)*10^6</f>
         <v>87.7</v>
       </c>
       <c r="K59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>175.4</v>
       </c>
     </row>
@@ -6307,25 +6050,25 @@
         <v>67.099999999999994</v>
       </c>
       <c r="F62" s="4">
-        <f t="shared" ref="F62:F71" si="20">(D62 * (E62/1000))*1000</f>
+        <f t="shared" ref="F62:F71" si="8">(D62 * (E62/1000))*1000</f>
         <v>101.0526</v>
       </c>
       <c r="G62">
         <v>0.38500000000000001</v>
       </c>
       <c r="H62">
-        <f t="shared" ref="H62:H71" si="21">($P$5*G62)*1000</f>
+        <f>($N$5*G62)*1000</f>
         <v>19.250000000000004</v>
       </c>
       <c r="I62">
         <v>3.1960000000000002</v>
       </c>
       <c r="J62">
-        <f t="shared" ref="J62:J71" si="22">(I62/$P$9)*10^6</f>
+        <f>(I62/$N$9)*10^6</f>
         <v>319.60000000000002</v>
       </c>
       <c r="K62">
-        <f t="shared" ref="K62:K71" si="23">J62*2</f>
+        <f t="shared" ref="K62:K71" si="9">J62*2</f>
         <v>639.20000000000005</v>
       </c>
     </row>
@@ -6344,25 +6087,25 @@
         <v>58.7</v>
       </c>
       <c r="F63" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>82.532200000000003</v>
       </c>
       <c r="G63">
         <v>0.31</v>
       </c>
       <c r="H63">
-        <f t="shared" si="21"/>
+        <f>($N$5*G63)*1000</f>
         <v>15.5</v>
       </c>
       <c r="I63">
         <v>3.19</v>
       </c>
       <c r="J63">
-        <f t="shared" si="22"/>
+        <f>(I63/$N$9)*10^6</f>
         <v>319</v>
       </c>
       <c r="K63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="9"/>
         <v>638</v>
       </c>
     </row>
@@ -6381,25 +6124,25 @@
         <v>48.3</v>
       </c>
       <c r="F64" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>62.983200000000004</v>
       </c>
       <c r="G64">
         <v>0.23400000000000001</v>
       </c>
       <c r="H64">
-        <f t="shared" si="21"/>
+        <f>($N$5*G64)*1000</f>
         <v>11.700000000000003</v>
       </c>
       <c r="I64">
         <v>3.181</v>
       </c>
       <c r="J64">
-        <f t="shared" si="22"/>
+        <f>(I64/$N$9)*10^6</f>
         <v>318.09999999999997</v>
       </c>
       <c r="K64">
-        <f t="shared" si="23"/>
+        <f t="shared" si="9"/>
         <v>636.19999999999993</v>
       </c>
     </row>
@@ -6418,25 +6161,25 @@
         <v>39.799999999999997</v>
       </c>
       <c r="F65" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>47.998799999999996</v>
       </c>
       <c r="G65">
         <v>0.17399999999999999</v>
       </c>
       <c r="H65">
-        <f t="shared" si="21"/>
+        <f>($N$5*G65)*1000</f>
         <v>8.6999999999999993</v>
       </c>
       <c r="I65">
         <v>3.1659999999999999</v>
       </c>
       <c r="J65">
-        <f t="shared" si="22"/>
+        <f>(I65/$N$9)*10^6</f>
         <v>316.60000000000002</v>
       </c>
       <c r="K65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="9"/>
         <v>633.20000000000005</v>
       </c>
     </row>
@@ -6455,25 +6198,25 @@
         <v>35.700000000000003</v>
       </c>
       <c r="F66" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>39.305700000000002</v>
       </c>
       <c r="G66">
         <v>0.14299999999999999</v>
       </c>
       <c r="H66">
-        <f t="shared" si="21"/>
+        <f>($N$5*G66)*1000</f>
         <v>7.15</v>
       </c>
       <c r="I66">
         <v>3.149</v>
       </c>
       <c r="J66">
-        <f t="shared" si="22"/>
+        <f>(I66/$N$9)*10^6</f>
         <v>314.90000000000003</v>
       </c>
       <c r="K66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="9"/>
         <v>629.80000000000007</v>
       </c>
     </row>
@@ -6492,25 +6235,25 @@
         <v>31.8</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>31.9908</v>
       </c>
       <c r="G67">
         <v>0.115</v>
       </c>
       <c r="H67">
-        <f t="shared" si="21"/>
+        <f>($N$5*G67)*1000</f>
         <v>5.7500000000000009</v>
       </c>
       <c r="I67">
         <v>3.0939999999999999</v>
       </c>
       <c r="J67">
-        <f t="shared" si="22"/>
+        <f>(I67/$N$9)*10^6</f>
         <v>309.39999999999998</v>
       </c>
       <c r="K67">
-        <f t="shared" si="23"/>
+        <f t="shared" si="9"/>
         <v>618.79999999999995</v>
       </c>
     </row>
@@ -6529,25 +6272,25 @@
         <v>27.2</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>24.697600000000001</v>
       </c>
       <c r="G68">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="H68">
-        <f t="shared" si="21"/>
+        <f>($N$5*G68)*1000</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="I68">
         <v>2.581</v>
       </c>
       <c r="J68">
-        <f t="shared" si="22"/>
+        <f>(I68/$N$9)*10^6</f>
         <v>258.09999999999997</v>
       </c>
       <c r="K68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="9"/>
         <v>516.19999999999993</v>
       </c>
     </row>
@@ -6566,25 +6309,25 @@
         <v>20.7</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>16.704900000000002</v>
       </c>
       <c r="G69">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="H69">
-        <f t="shared" si="21"/>
+        <f>($N$5*G69)*1000</f>
         <v>2.85</v>
       </c>
       <c r="I69">
         <v>1.7749999999999999</v>
       </c>
       <c r="J69">
-        <f t="shared" si="22"/>
+        <f>(I69/$N$9)*10^6</f>
         <v>177.49999999999997</v>
       </c>
       <c r="K69">
-        <f t="shared" si="23"/>
+        <f t="shared" si="9"/>
         <v>354.99999999999994</v>
       </c>
     </row>
@@ -6603,25 +6346,25 @@
         <v>14.1</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>9.9545999999999992</v>
       </c>
       <c r="G70">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H70">
-        <f t="shared" si="21"/>
+        <f>($N$5*G70)*1000</f>
         <v>1.6</v>
       </c>
       <c r="I70">
         <v>1.0469999999999999</v>
       </c>
       <c r="J70">
-        <f t="shared" si="22"/>
+        <f>(I70/$N$9)*10^6</f>
         <v>104.7</v>
       </c>
       <c r="K70">
-        <f t="shared" si="23"/>
+        <f t="shared" si="9"/>
         <v>209.4</v>
       </c>
     </row>
@@ -6640,25 +6383,25 @@
         <v>7.5</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>4.5374999999999996</v>
       </c>
       <c r="G71">
         <v>1.2E-2</v>
       </c>
       <c r="H71">
-        <f t="shared" si="21"/>
+        <f>($N$5*G71)*1000</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="I71">
         <v>0.39400000000000002</v>
       </c>
       <c r="J71">
-        <f t="shared" si="22"/>
+        <f>(I71/$N$9)*10^6</f>
         <v>39.400000000000006</v>
       </c>
       <c r="K71">
-        <f t="shared" si="23"/>
+        <f t="shared" si="9"/>
         <v>78.800000000000011</v>
       </c>
     </row>
@@ -6723,25 +6466,25 @@
         <v>60.1</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" ref="F74:F83" si="24">(D74 * (E74/1000))*1000</f>
+        <f t="shared" ref="F74:F83" si="10">(D74 * (E74/1000))*1000</f>
         <v>90.15</v>
       </c>
       <c r="G74">
         <v>0.34499999999999997</v>
       </c>
       <c r="H74">
-        <f t="shared" ref="H74:H83" si="25">($P$5*G74)*1000</f>
+        <f>($N$5*G74)*1000</f>
         <v>17.249999999999996</v>
       </c>
       <c r="I74">
         <v>3.194</v>
       </c>
       <c r="J74">
-        <f t="shared" ref="J74:J83" si="26">(I74/$P$9)*10^6</f>
+        <f>(I74/$N$9)*10^6</f>
         <v>319.40000000000003</v>
       </c>
       <c r="K74">
-        <f t="shared" ref="K74:K83" si="27">J74*2</f>
+        <f t="shared" ref="K74:K83" si="11">J74*2</f>
         <v>638.80000000000007</v>
       </c>
     </row>
@@ -6760,25 +6503,25 @@
         <v>51.5</v>
       </c>
       <c r="F75" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>72.254499999999993</v>
       </c>
       <c r="G75">
         <v>0.27500000000000002</v>
       </c>
       <c r="H75">
-        <f t="shared" si="25"/>
+        <f>($N$5*G75)*1000</f>
         <v>13.750000000000002</v>
       </c>
       <c r="I75">
         <v>3.1869999999999998</v>
       </c>
       <c r="J75">
-        <f t="shared" si="26"/>
+        <f>(I75/$N$9)*10^6</f>
         <v>318.7</v>
       </c>
       <c r="K75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>637.4</v>
       </c>
     </row>
@@ -6797,25 +6540,25 @@
         <v>42.3</v>
       </c>
       <c r="F76" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>55.032299999999992</v>
       </c>
       <c r="G76">
         <v>0.20499999999999999</v>
       </c>
       <c r="H76">
-        <f t="shared" si="25"/>
+        <f>($N$5*G76)*1000</f>
         <v>10.25</v>
       </c>
       <c r="I76">
         <v>3.1749999999999998</v>
       </c>
       <c r="J76">
-        <f t="shared" si="26"/>
+        <f>(I76/$N$9)*10^6</f>
         <v>317.49999999999994</v>
       </c>
       <c r="K76">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>634.99999999999989</v>
       </c>
     </row>
@@ -6834,25 +6577,25 @@
         <v>37.299999999999997</v>
       </c>
       <c r="F77" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>45.095700000000001</v>
       </c>
       <c r="G77">
         <v>0.16600000000000001</v>
       </c>
       <c r="H77">
-        <f t="shared" si="25"/>
+        <f>($N$5*G77)*1000</f>
         <v>8.3000000000000007</v>
       </c>
       <c r="I77">
         <v>3.1629999999999998</v>
       </c>
       <c r="J77">
-        <f t="shared" si="26"/>
+        <f>(I77/$N$9)*10^6</f>
         <v>316.3</v>
       </c>
       <c r="K77">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>632.6</v>
       </c>
     </row>
@@ -6871,25 +6614,25 @@
         <v>33.299999999999997</v>
       </c>
       <c r="F78" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>36.796499999999995</v>
       </c>
       <c r="G78">
         <v>0.13400000000000001</v>
       </c>
       <c r="H78">
-        <f t="shared" si="25"/>
+        <f>($N$5*G78)*1000</f>
         <v>6.7000000000000011</v>
       </c>
       <c r="I78">
         <v>3.1419999999999999</v>
       </c>
       <c r="J78">
-        <f t="shared" si="26"/>
+        <f>(I78/$N$9)*10^6</f>
         <v>314.2</v>
       </c>
       <c r="K78">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>628.4</v>
       </c>
     </row>
@@ -6908,25 +6651,25 @@
         <v>29.1</v>
       </c>
       <c r="F79" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>29.1873</v>
       </c>
       <c r="G79">
         <v>0.105</v>
       </c>
       <c r="H79">
-        <f t="shared" si="25"/>
+        <f>($N$5*G79)*1000</f>
         <v>5.25</v>
       </c>
       <c r="I79">
         <v>2.964</v>
       </c>
       <c r="J79">
-        <f t="shared" si="26"/>
+        <f>(I79/$N$9)*10^6</f>
         <v>296.39999999999998</v>
       </c>
       <c r="K79">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>592.79999999999995</v>
       </c>
     </row>
@@ -6945,25 +6688,25 @@
         <v>23.5</v>
       </c>
       <c r="F80" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>21.196999999999999</v>
       </c>
       <c r="G80">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="H80">
-        <f t="shared" si="25"/>
+        <f>($N$5*G80)*1000</f>
         <v>3.7</v>
       </c>
       <c r="I80">
         <v>2.2290000000000001</v>
       </c>
       <c r="J80">
-        <f t="shared" si="26"/>
+        <f>(I80/$N$9)*10^6</f>
         <v>222.9</v>
       </c>
       <c r="K80">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>445.8</v>
       </c>
     </row>
@@ -6982,25 +6725,25 @@
         <v>17.5</v>
       </c>
       <c r="F81" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>14.105000000000002</v>
       </c>
       <c r="G81">
         <v>4.7E-2</v>
       </c>
       <c r="H81">
-        <f t="shared" si="25"/>
+        <f>($N$5*G81)*1000</f>
         <v>2.35</v>
       </c>
       <c r="I81">
         <v>1.49</v>
       </c>
       <c r="J81">
-        <f t="shared" si="26"/>
+        <f>(I81/$N$9)*10^6</f>
         <v>149</v>
       </c>
       <c r="K81">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>298</v>
       </c>
     </row>
@@ -7019,25 +6762,25 @@
         <v>12</v>
       </c>
       <c r="F82" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>8.4479999999999986</v>
       </c>
       <c r="G82">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="H82">
-        <f t="shared" si="25"/>
+        <f>($N$5*G82)*1000</f>
         <v>1.3</v>
       </c>
       <c r="I82">
         <v>0.86099999999999999</v>
       </c>
       <c r="J82">
-        <f t="shared" si="26"/>
+        <f>(I82/$N$9)*10^6</f>
         <v>86.1</v>
       </c>
       <c r="K82">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>172.2</v>
       </c>
     </row>
@@ -7056,25 +6799,25 @@
         <v>5.3</v>
       </c>
       <c r="F83" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>3.1905999999999999</v>
       </c>
       <c r="G83">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="H83">
-        <f t="shared" si="25"/>
+        <f>($N$5*G83)*1000</f>
         <v>0.35000000000000003</v>
       </c>
       <c r="I83">
         <v>0.221</v>
       </c>
       <c r="J83">
-        <f t="shared" si="26"/>
+        <f>(I83/$N$9)*10^6</f>
         <v>22.1</v>
       </c>
       <c r="K83">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>44.2</v>
       </c>
     </row>
@@ -7136,25 +6879,25 @@
         <v>52.6</v>
       </c>
       <c r="F86" s="4">
-        <f t="shared" ref="F86:F95" si="28">(D86 * (E86/1000))*1000</f>
+        <f t="shared" ref="F86:F95" si="12">(D86 * (E86/1000))*1000</f>
         <v>79.0578</v>
       </c>
       <c r="G86">
         <v>0.307</v>
       </c>
       <c r="H86">
-        <f t="shared" ref="H86:H95" si="29">($P$5*G86)*1000</f>
+        <f>($N$5*G86)*1000</f>
         <v>15.350000000000001</v>
       </c>
       <c r="I86">
         <v>3.1930000000000001</v>
       </c>
       <c r="J86">
-        <f t="shared" ref="J86:J95" si="30">(I86/$P$9)*10^6</f>
+        <f>(I86/$N$9)*10^6</f>
         <v>319.3</v>
       </c>
       <c r="K86">
-        <f t="shared" ref="K86:K95" si="31">J86*2</f>
+        <f t="shared" ref="K86:K95" si="13">J86*2</f>
         <v>638.6</v>
       </c>
     </row>
@@ -7173,25 +6916,25 @@
         <v>44.1</v>
       </c>
       <c r="F87" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>61.828200000000002</v>
       </c>
       <c r="G87">
         <v>0.23699999999999999</v>
       </c>
       <c r="H87">
-        <f t="shared" si="29"/>
+        <f>($N$5*G87)*1000</f>
         <v>11.85</v>
       </c>
       <c r="I87">
         <v>3.1829999999999998</v>
       </c>
       <c r="J87">
-        <f t="shared" si="30"/>
+        <f>(I87/$N$9)*10^6</f>
         <v>318.3</v>
       </c>
       <c r="K87">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>636.6</v>
       </c>
     </row>
@@ -7210,25 +6953,25 @@
         <v>37.6</v>
       </c>
       <c r="F88" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>49.180800000000005</v>
       </c>
       <c r="G88">
         <v>0.185</v>
       </c>
       <c r="H88">
-        <f t="shared" si="29"/>
+        <f>($N$5*G88)*1000</f>
         <v>9.25</v>
       </c>
       <c r="I88">
         <v>3.1709999999999998</v>
       </c>
       <c r="J88">
-        <f t="shared" si="30"/>
+        <f>(I88/$N$9)*10^6</f>
         <v>317.09999999999997</v>
       </c>
       <c r="K88">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>634.19999999999993</v>
       </c>
     </row>
@@ -7247,25 +6990,25 @@
         <v>33.700000000000003</v>
       </c>
       <c r="F89" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>40.5411</v>
       </c>
       <c r="G89">
         <v>0.15</v>
       </c>
       <c r="H89">
-        <f t="shared" si="29"/>
+        <f>($N$5*G89)*1000</f>
         <v>7.5</v>
       </c>
       <c r="I89">
         <v>3.157</v>
       </c>
       <c r="J89">
-        <f t="shared" si="30"/>
+        <f>(I89/$N$9)*10^6</f>
         <v>315.7</v>
       </c>
       <c r="K89">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>631.4</v>
       </c>
     </row>
@@ -7284,25 +7027,25 @@
         <v>30.1</v>
       </c>
       <c r="F90" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>33.320700000000002</v>
       </c>
       <c r="G90">
         <v>0.121</v>
       </c>
       <c r="H90">
-        <f t="shared" si="29"/>
+        <f>($N$5*G90)*1000</f>
         <v>6.05</v>
       </c>
       <c r="I90">
         <v>3.1240000000000001</v>
       </c>
       <c r="J90">
-        <f t="shared" si="30"/>
+        <f>(I90/$N$9)*10^6</f>
         <v>312.39999999999998</v>
       </c>
       <c r="K90">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>624.79999999999995</v>
       </c>
     </row>
@@ -7321,25 +7064,25 @@
         <v>25.45</v>
       </c>
       <c r="F91" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>25.653600000000001</v>
       </c>
       <c r="G91">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="H91">
-        <f t="shared" si="29"/>
+        <f>($N$5*G91)*1000</f>
         <v>4.55</v>
       </c>
       <c r="I91">
         <v>2.66</v>
       </c>
       <c r="J91">
-        <f t="shared" si="30"/>
+        <f>(I91/$N$9)*10^6</f>
         <v>266</v>
       </c>
       <c r="K91">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>532</v>
       </c>
     </row>
@@ -7358,25 +7101,25 @@
         <v>19.7</v>
       </c>
       <c r="F92" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>17.887599999999999</v>
       </c>
       <c r="G92">
         <v>0.06</v>
       </c>
       <c r="H92">
-        <f t="shared" si="29"/>
+        <f>($N$5*G92)*1000</f>
         <v>3</v>
       </c>
       <c r="I92">
         <v>1.877</v>
       </c>
       <c r="J92">
-        <f t="shared" si="30"/>
+        <f>(I92/$N$9)*10^6</f>
         <v>187.70000000000002</v>
       </c>
       <c r="K92">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>375.40000000000003</v>
       </c>
     </row>
@@ -7395,25 +7138,25 @@
         <v>15.1</v>
       </c>
       <c r="F93" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>12.2159</v>
       </c>
       <c r="G93">
         <v>3.9E-2</v>
       </c>
       <c r="H93">
-        <f t="shared" si="29"/>
+        <f>($N$5*G93)*1000</f>
         <v>1.9500000000000002</v>
       </c>
       <c r="I93">
         <v>1.2649999999999999</v>
       </c>
       <c r="J93">
-        <f t="shared" si="30"/>
+        <f>(I93/$N$9)*10^6</f>
         <v>126.49999999999999</v>
       </c>
       <c r="K93">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>252.99999999999997</v>
       </c>
     </row>
@@ -7432,25 +7175,25 @@
         <v>9.6</v>
       </c>
       <c r="F94" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>6.7679999999999989</v>
       </c>
       <c r="G94">
         <v>1.9E-2</v>
       </c>
       <c r="H94">
-        <f t="shared" si="29"/>
+        <f>($N$5*G94)*1000</f>
         <v>0.95</v>
       </c>
       <c r="I94">
         <v>0.629</v>
       </c>
       <c r="J94">
-        <f t="shared" si="30"/>
+        <f>(I94/$N$9)*10^6</f>
         <v>62.9</v>
       </c>
       <c r="K94">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>125.8</v>
       </c>
     </row>
@@ -7469,25 +7212,25 @@
         <v>3.7</v>
       </c>
       <c r="F95" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>2.2458999999999998</v>
       </c>
       <c r="G95">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H95">
-        <f t="shared" si="29"/>
+        <f>($N$5*G95)*1000</f>
         <v>0.2</v>
       </c>
       <c r="I95">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="J95">
-        <f t="shared" si="30"/>
+        <f>(I95/$N$9)*10^6</f>
         <v>8.4</v>
       </c>
       <c r="K95">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>16.8</v>
       </c>
     </row>
@@ -7512,8 +7255,8 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <tableParts count="8">
+    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
@@ -7521,7 +7264,6 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
-    <tablePart r:id="rId10"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/testing/Joule Thief Measurments.xlsx
+++ b/testing/Joule Thief Measurments.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14565" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14565" tabRatio="608" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LED on-off Voltage" sheetId="2" r:id="rId1"/>
     <sheet name="Input Current" sheetId="3" r:id="rId2"/>
     <sheet name="LED Light Output" sheetId="4" r:id="rId3"/>
     <sheet name="Input Power" sheetId="5" r:id="rId4"/>
-    <sheet name="LED Light Outpu at Input Power" sheetId="6" r:id="rId5"/>
+    <sheet name="LED Light Output at Input Power" sheetId="6" r:id="rId5"/>
     <sheet name="Base Resistor Testing" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
@@ -322,6 +322,9 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thick">
           <color theme="0"/>
@@ -395,9 +398,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3655,7 +3655,7 @@
     <tableColumn id="2" name="Switching Frequency [kHz]"/>
     <tableColumn id="3" name="Input Voltage [volts]"/>
     <tableColumn id="4" name="Input Current [mA]"/>
-    <tableColumn id="10" name="Input Power [mW]" dataDxfId="18">
+    <tableColumn id="10" name="Input Power [mW]" dataDxfId="0">
       <calculatedColumnFormula>(D13 * (E13/1000))*1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
@@ -3675,7 +3675,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table511" displayName="Table511" ref="B24:K34" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table511" displayName="Table511" ref="B24:K34" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17">
   <autoFilter ref="B24:K34">
     <filterColumn colId="4"/>
   </autoFilter>
@@ -3684,7 +3684,7 @@
     <tableColumn id="2" name="Switching Frequency [kHz]"/>
     <tableColumn id="3" name="Input Voltage [volts]"/>
     <tableColumn id="4" name="Input Current [mA]"/>
-    <tableColumn id="10" name="Input Power [mW]" dataDxfId="15">
+    <tableColumn id="10" name="Input Power [mW]" dataDxfId="16">
       <calculatedColumnFormula>(D25 * (E25/1000))*1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
@@ -3704,7 +3704,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table51112" displayName="Table51112" ref="B36:K46" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table51112" displayName="Table51112" ref="B36:K46" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14">
   <autoFilter ref="B36:K46">
     <filterColumn colId="4"/>
   </autoFilter>
@@ -3713,7 +3713,7 @@
     <tableColumn id="2" name="Switching Frequency [kHz]"/>
     <tableColumn id="3" name="Input Voltage [volts]"/>
     <tableColumn id="4" name="Input Current [mA]"/>
-    <tableColumn id="10" name="Input Power [mW]" dataDxfId="12">
+    <tableColumn id="10" name="Input Power [mW]" dataDxfId="13">
       <calculatedColumnFormula>(D37 * (E37/1000))*1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
@@ -3733,7 +3733,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table5111213" displayName="Table5111213" ref="B49:K59" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table5111213" displayName="Table5111213" ref="B49:K59" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11">
   <autoFilter ref="B49:K59">
     <filterColumn colId="4"/>
   </autoFilter>
@@ -3742,7 +3742,7 @@
     <tableColumn id="2" name="Switching Frequency [kHz]"/>
     <tableColumn id="3" name="Input Voltage [volts]"/>
     <tableColumn id="4" name="Input Current [mA]"/>
-    <tableColumn id="10" name="Input Power [mW]" dataDxfId="9">
+    <tableColumn id="10" name="Input Power [mW]" dataDxfId="10">
       <calculatedColumnFormula>(D50 * (E50/1000))*1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
@@ -3762,7 +3762,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table511121314" displayName="Table511121314" ref="B61:K71" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table511121314" displayName="Table511121314" ref="B61:K71" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
   <autoFilter ref="B61:K71">
     <filterColumn colId="4"/>
   </autoFilter>
@@ -3771,7 +3771,7 @@
     <tableColumn id="2" name="Switching Frequency [kHz]"/>
     <tableColumn id="3" name="Input Voltage [volts]"/>
     <tableColumn id="4" name="Input Current [mA]"/>
-    <tableColumn id="10" name="Input Power [mW]" dataDxfId="6">
+    <tableColumn id="10" name="Input Power [mW]" dataDxfId="7">
       <calculatedColumnFormula>(D62 * (E62/1000))*1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
@@ -3791,7 +3791,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table51112131415" displayName="Table51112131415" ref="B73:K83" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table51112131415" displayName="Table51112131415" ref="B73:K83" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
   <autoFilter ref="B73:K83">
     <filterColumn colId="4"/>
   </autoFilter>
@@ -3800,7 +3800,7 @@
     <tableColumn id="2" name="Switching Frequency [kHz]"/>
     <tableColumn id="3" name="Input Voltage [volts]"/>
     <tableColumn id="4" name="Input Current [mA]"/>
-    <tableColumn id="10" name="Input Power [mW]" dataDxfId="3">
+    <tableColumn id="10" name="Input Power [mW]" dataDxfId="4">
       <calculatedColumnFormula>(D74 * (E74/1000))*1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
@@ -3820,7 +3820,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table5111213141516" displayName="Table5111213141516" ref="B85:K95" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table5111213141516" displayName="Table5111213141516" ref="B85:K95" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
   <autoFilter ref="B85:K95">
     <filterColumn colId="4"/>
   </autoFilter>
@@ -3829,7 +3829,7 @@
     <tableColumn id="2" name="Switching Frequency [kHz]"/>
     <tableColumn id="3" name="Input Voltage [volts]"/>
     <tableColumn id="4" name="Input Current [mA]"/>
-    <tableColumn id="10" name="Input Power [mW]" dataDxfId="0">
+    <tableColumn id="10" name="Input Power [mW]" dataDxfId="1">
       <calculatedColumnFormula>(D86 * (E86/1000))*1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
@@ -4173,7 +4173,7 @@
   <dimension ref="A2:O96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/testing/Joule Thief Measurments.xlsx
+++ b/testing/Joule Thief Measurments.xlsx
@@ -4,15 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14565" tabRatio="608" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14565" tabRatio="608" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LED on-off Voltage" sheetId="2" r:id="rId1"/>
     <sheet name="Input Current" sheetId="3" r:id="rId2"/>
     <sheet name="LED Light Output" sheetId="4" r:id="rId3"/>
     <sheet name="Input Power" sheetId="5" r:id="rId4"/>
-    <sheet name="LED Light Output at Input Power" sheetId="6" r:id="rId5"/>
-    <sheet name="Base Resistor Testing" sheetId="1" r:id="rId6"/>
+    <sheet name="LED Light Output vs Input Power" sheetId="6" r:id="rId5"/>
+    <sheet name="LED Current vs Input Power" sheetId="7" r:id="rId6"/>
+    <sheet name="LED Current vs Input Voltage" sheetId="8" r:id="rId7"/>
+    <sheet name="Switching Freq vs Input Voltage" sheetId="9" r:id="rId8"/>
+    <sheet name="Base Resistor Testing" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -178,6 +181,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
   <fonts count="8">
     <font>
       <sz val="12"/>
@@ -281,7 +289,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -297,6 +305,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -317,9 +329,201 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="81">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -335,7 +539,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -348,7 +559,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -359,35 +577,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -432,7 +621,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>LED on/off Voltage Vs Base Resistor Value</a:t>
+              <a:t>Input</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Voltage for LED Operation vs R1 Resistance Value</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -453,7 +650,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$B$4:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -483,7 +680,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$4:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.52</c:v>
@@ -520,7 +717,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$B$4:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -550,7 +747,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$C$4:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.4002</c:v>
@@ -577,15 +774,16 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="169177472"/>
-        <c:axId val="169189376"/>
+        <c:axId val="64264064"/>
+        <c:axId val="64278912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="169177472"/>
+        <c:axId val="64264064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -612,14 +810,14 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169189376"/>
+        <c:crossAx val="64278912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="169189376"/>
+        <c:axId val="64278912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -636,16 +834,16 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Turn On/Off Voltage [volts]</a:t>
+                  <a:t>Input Voltage [volts]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169177472"/>
+        <c:crossAx val="64264064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -674,7 +872,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Input Current Vs Input Voltage At Base Resistor Value</a:t>
+              <a:t>Input Current vs Input Voltage</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -695,7 +893,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$13:$D$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.5053000000000001</c:v>
@@ -734,7 +932,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$E$13:$E$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>129.62</c:v>
@@ -780,7 +978,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$25:$D$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.508</c:v>
@@ -819,7 +1017,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$E$25:$E$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>111.5</c:v>
@@ -865,7 +1063,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$37:$D$46</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.502</c:v>
@@ -904,7 +1102,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$E$37:$E$46</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>93.6</c:v>
@@ -950,7 +1148,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$50:$D$59</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.514</c:v>
@@ -989,7 +1187,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$E$50:$E$59</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>80.3</c:v>
@@ -1035,7 +1233,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$62:$D$71</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.506</c:v>
@@ -1074,7 +1272,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$E$62:$E$71</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>67.099999999999994</c:v>
@@ -1120,7 +1318,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$74:$D$83</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.5</c:v>
@@ -1159,7 +1357,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$E$74:$E$83</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>60.1</c:v>
@@ -1205,7 +1403,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$86:$D$95</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.5029999999999999</c:v>
@@ -1244,7 +1442,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$E$86:$E$95</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>52.6</c:v>
@@ -1280,15 +1478,16 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="105540224"/>
-        <c:axId val="105558400"/>
+        <c:axId val="64345600"/>
+        <c:axId val="64347520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105540224"/>
+        <c:axId val="64345600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1307,14 +1506,14 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105558400"/>
+        <c:crossAx val="64347520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105558400"/>
+        <c:axId val="64347520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,9 +1537,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105540224"/>
+        <c:crossAx val="64345600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1369,7 +1568,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>LED Light Output Vs Input Voltage At Base Resistor Value</a:t>
+              <a:t>LED Light Output vs Input Voltage</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1390,7 +1589,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$13:$D$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.5053000000000001</c:v>
@@ -1429,7 +1628,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$K$13:$K$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>636.19999999999993</c:v>
@@ -1475,7 +1674,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$25:$D$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.508</c:v>
@@ -1514,7 +1713,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$K$25:$K$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>636.80000000000007</c:v>
@@ -1560,7 +1759,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$37:$D$46</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.502</c:v>
@@ -1599,7 +1798,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$K$37:$K$46</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>637.4</c:v>
@@ -1645,7 +1844,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$50:$D$59</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.514</c:v>
@@ -1684,7 +1883,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$K$50:$K$59</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>638.4</c:v>
@@ -1730,7 +1929,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$62:$D$71</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.506</c:v>
@@ -1769,7 +1968,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$K$62:$K$71</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>639.20000000000005</c:v>
@@ -1815,7 +2014,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$74:$D$83</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.5</c:v>
@@ -1854,7 +2053,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$K$74:$K$83</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>638.80000000000007</c:v>
@@ -1900,7 +2099,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$86:$D$95</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.5029999999999999</c:v>
@@ -1939,7 +2138,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$K$86:$K$95</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>638.6</c:v>
@@ -1975,15 +2174,16 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79593856"/>
-        <c:axId val="79595776"/>
+        <c:axId val="94728960"/>
+        <c:axId val="94730880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79593856"/>
+        <c:axId val="94728960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2002,14 +2202,14 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79595776"/>
+        <c:crossAx val="94730880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79595776"/>
+        <c:axId val="94730880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2033,9 +2233,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79593856"/>
+        <c:crossAx val="94728960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2064,7 +2264,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Input Power Vs Input Voltage at Base Resistor Value</a:t>
+              <a:t>Input Power vs Input Voltage</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2085,7 +2285,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$13:$D$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.5053000000000001</c:v>
@@ -2170,7 +2370,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$25:$D$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.508</c:v>
@@ -2255,7 +2455,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$37:$D$46</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.502</c:v>
@@ -2340,7 +2540,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$50:$D$59</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.514</c:v>
@@ -2425,7 +2625,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$62:$D$71</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.506</c:v>
@@ -2510,7 +2710,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$74:$D$83</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.5</c:v>
@@ -2595,7 +2795,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$D$86:$D$95</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.5029999999999999</c:v>
@@ -2670,15 +2870,16 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="156874240"/>
-        <c:axId val="157608192"/>
+        <c:axId val="111710208"/>
+        <c:axId val="111712128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="156874240"/>
+        <c:axId val="111710208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2697,14 +2898,14 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157608192"/>
+        <c:crossAx val="111712128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157608192"/>
+        <c:axId val="111712128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,9 +2929,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156874240"/>
+        <c:crossAx val="111710208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2759,7 +2960,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Input Power Vs LED Light Level at Base Resistor Value</a:t>
+              <a:t>LED Light Output vs Input Power</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2819,7 +3020,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$K$13:$K$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>636.19999999999993</c:v>
@@ -2904,7 +3105,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$K$25:$K$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>636.80000000000007</c:v>
@@ -2989,7 +3190,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$K$37:$K$46</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>637.4</c:v>
@@ -3074,7 +3275,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$K$50:$K$59</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>638.4</c:v>
@@ -3159,7 +3360,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$K$62:$K$71</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>639.20000000000005</c:v>
@@ -3244,7 +3445,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$K$74:$K$83</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>638.80000000000007</c:v>
@@ -3329,7 +3530,7 @@
             <c:numRef>
               <c:f>'Base Resistor Testing'!$K$86:$K$95</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>638.6</c:v>
@@ -3365,15 +3566,16 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79206272"/>
-        <c:axId val="79217024"/>
+        <c:axId val="111671936"/>
+        <c:axId val="113128192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79206272"/>
+        <c:axId val="111671936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3398,12 +3600,12 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79217024"/>
+        <c:crossAx val="113128192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79217024"/>
+        <c:axId val="113128192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3427,9 +3629,2097 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79206272"/>
+        <c:crossAx val="111671936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LED Current vs Input Power</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$F$13:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>195.11698600000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158.307998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.46940000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.875371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.891443999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.129991999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.627911999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.091635999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.233499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.334982499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$H$13:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>28.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.724999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7150000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1.5K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$F$25:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>168.14200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137.5068</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112.66659999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.542500000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.836900000000014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.3536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.031100000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.027400000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.646599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.577599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$H$25:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>27.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2.2K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$F$37:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>140.5872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118.55359999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.930400000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.848799999999983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.006999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.343299999999992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.448</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.8248</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.454899999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.200000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$H$37:$H$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3.3K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$F$50:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>121.57419999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.962599999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.948900000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.764000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.226200000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.2256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.6349</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0668000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$H$50:$H$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>22.150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4.7K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$F$62:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>101.0526</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.532200000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.983200000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.998799999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.305700000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.9908</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.697600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.704900000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9545999999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5374999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$H$62:$H$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19.250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>5.6K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$F$74:$F$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>90.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.254499999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.032299999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.095700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.796499999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.1873</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.196999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.105000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4479999999999986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1905999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$H$74:$H$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>17.249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>6.8K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$F$86:$F$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>79.0578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.828200000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.180800000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.5411</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.320700000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.653600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.887599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.2159</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7679999999999989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2458999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$H$86:$H$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="107887616"/>
+        <c:axId val="107893504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="107887616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input Power [mW]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107893504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="107893504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>LED Current [mA]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107887616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LED Current vs Input Voltage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$D$13:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5053000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4016999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1022000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0026999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90259999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60250000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$H$13:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>28.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.724999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7150000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1.5K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$D$25:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$H$25:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>27.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2.2K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$D$37:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$H$37:$H$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3.3K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$D$50:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.514</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$H$50:$H$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>22.150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4.7K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$D$62:$D$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$H$62:$H$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19.250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>5.6K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$D$74:$D$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$H$74:$H$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>17.249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>6.8K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$D$86:$D$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60699999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$H$86:$H$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="90196992"/>
+        <c:axId val="90211456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="90196992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input Voltage [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90211456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="90211456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>LED Current [mA]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90196992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Switching Frequency vs Input Voltage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$D$13:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5053000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4016999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1022000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0026999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90259999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60250000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$C$13:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>58.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>117.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>142.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1.5K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$D$25:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$C$25:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>109.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150.30000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2.2K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$D$37:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$C$37:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>136.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>164.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3.3K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$D$50:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.514</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$C$50:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>83.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>154.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>194.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4.7K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$D$62:$D$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$C$62:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>107.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>5.6K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$D$74:$D$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$C$74:$C$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>111.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>171.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>195.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>6.8K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$D$86:$D$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60699999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Base Resistor Testing'!$C$86:$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>118.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>147.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>162.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>203.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="90241664"/>
+        <c:axId val="106046208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="90241664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input Voltage [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106046208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="106046208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Switching Frequency [kHz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90241664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3450,7 +5740,8 @@
     <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -3488,6 +5779,39 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -3633,40 +5957,121 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656320" cy="6271260"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656320" cy="6271260"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656320" cy="6271260"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:D10" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:D10" totalsRowShown="0" headerRowDxfId="80">
   <autoFilter ref="B3:D10"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Base Resistor [Ω]"/>
-    <tableColumn id="7" name="Turnoff Voltage [volts]"/>
-    <tableColumn id="8" name="Turnon Voltage [volts]"/>
+    <tableColumn id="1" name="Base Resistor [Ω]" dataDxfId="2"/>
+    <tableColumn id="7" name="Turnoff Voltage [volts]" dataDxfId="1"/>
+    <tableColumn id="8" name="Turnon Voltage [volts]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B12:K22" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B12:K22" totalsRowShown="0" headerRowDxfId="79" headerRowBorderDxfId="78">
   <autoFilter ref="B12:K22">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" name="Base Resistor [Ω]"/>
-    <tableColumn id="2" name="Switching Frequency [kHz]"/>
-    <tableColumn id="3" name="Input Voltage [volts]"/>
-    <tableColumn id="4" name="Input Current [mA]"/>
-    <tableColumn id="10" name="Input Power [mW]" dataDxfId="0">
+    <tableColumn id="2" name="Switching Frequency [kHz]" dataDxfId="65"/>
+    <tableColumn id="3" name="Input Voltage [volts]" dataDxfId="64"/>
+    <tableColumn id="4" name="Input Current [mA]" dataDxfId="63"/>
+    <tableColumn id="10" name="Input Power [mW]" dataDxfId="62">
       <calculatedColumnFormula>(D13 * (E13/1000))*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
-    <tableColumn id="6" name="LED Current [mA]">
+    <tableColumn id="5" name="LED Current Sensor Voltage [volts]" dataDxfId="61"/>
+    <tableColumn id="6" name="LED Current [mA]" dataDxfId="60">
       <calculatedColumnFormula>($N$5*G13)*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="LED Light Level [volts]"/>
-    <tableColumn id="8" name="TEMT6000 Collector Current [uA]">
+    <tableColumn id="7" name="LED Light Level [volts]" dataDxfId="59"/>
+    <tableColumn id="8" name="TEMT6000 Collector Current [uA]" dataDxfId="58">
       <calculatedColumnFormula>(I13/$N$9)*10^6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="LED Light Level [lx]">
+    <tableColumn id="9" name="LED Light Level [lx]" dataDxfId="57">
       <calculatedColumnFormula>J13*2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3675,27 +6080,27 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table511" displayName="Table511" ref="B24:K34" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table511" displayName="Table511" ref="B24:K34" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76">
   <autoFilter ref="B24:K34">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" name="Base Resistor [Ω]"/>
-    <tableColumn id="2" name="Switching Frequency [kHz]"/>
-    <tableColumn id="3" name="Input Voltage [volts]"/>
-    <tableColumn id="4" name="Input Current [mA]"/>
-    <tableColumn id="10" name="Input Power [mW]" dataDxfId="16">
+    <tableColumn id="2" name="Switching Frequency [kHz]" dataDxfId="56"/>
+    <tableColumn id="3" name="Input Voltage [volts]" dataDxfId="55"/>
+    <tableColumn id="4" name="Input Current [mA]" dataDxfId="54"/>
+    <tableColumn id="10" name="Input Power [mW]" dataDxfId="53">
       <calculatedColumnFormula>(D25 * (E25/1000))*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
-    <tableColumn id="6" name="LED Current [mA]">
+    <tableColumn id="5" name="LED Current Sensor Voltage [volts]" dataDxfId="52"/>
+    <tableColumn id="6" name="LED Current [mA]" dataDxfId="51">
       <calculatedColumnFormula>($N$5*G25)*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="LED Light Level [volts]"/>
-    <tableColumn id="8" name="TEMT6000 Collector Current [uA]">
+    <tableColumn id="7" name="LED Light Level [volts]" dataDxfId="50"/>
+    <tableColumn id="8" name="TEMT6000 Collector Current [uA]" dataDxfId="49">
       <calculatedColumnFormula>(I25/$N$9)*10^6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="LED Light Level [lx]">
+    <tableColumn id="9" name="LED Light Level [lx]" dataDxfId="48">
       <calculatedColumnFormula>J25*2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3704,27 +6109,27 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table51112" displayName="Table51112" ref="B36:K46" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table51112" displayName="Table51112" ref="B36:K46" totalsRowShown="0" headerRowDxfId="75" headerRowBorderDxfId="74">
   <autoFilter ref="B36:K46">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" name="Base Resistor [Ω]"/>
-    <tableColumn id="2" name="Switching Frequency [kHz]"/>
-    <tableColumn id="3" name="Input Voltage [volts]"/>
-    <tableColumn id="4" name="Input Current [mA]"/>
-    <tableColumn id="10" name="Input Power [mW]" dataDxfId="13">
+    <tableColumn id="2" name="Switching Frequency [kHz]" dataDxfId="47"/>
+    <tableColumn id="3" name="Input Voltage [volts]" dataDxfId="46"/>
+    <tableColumn id="4" name="Input Current [mA]" dataDxfId="45"/>
+    <tableColumn id="10" name="Input Power [mW]" dataDxfId="44">
       <calculatedColumnFormula>(D37 * (E37/1000))*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
-    <tableColumn id="6" name="LED Current [mA]">
+    <tableColumn id="5" name="LED Current Sensor Voltage [volts]" dataDxfId="43"/>
+    <tableColumn id="6" name="LED Current [mA]" dataDxfId="42">
       <calculatedColumnFormula>($N$5*G37)*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="LED Light Level [volts]"/>
-    <tableColumn id="8" name="TEMT6000 Collector Current [uA]">
+    <tableColumn id="7" name="LED Light Level [volts]" dataDxfId="41"/>
+    <tableColumn id="8" name="TEMT6000 Collector Current [uA]" dataDxfId="40">
       <calculatedColumnFormula>(I37/$N$9)*10^6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="LED Light Level [lx]">
+    <tableColumn id="9" name="LED Light Level [lx]" dataDxfId="39">
       <calculatedColumnFormula>J37*2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3733,27 +6138,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table5111213" displayName="Table5111213" ref="B49:K59" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table5111213" displayName="Table5111213" ref="B49:K59" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="72">
   <autoFilter ref="B49:K59">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" name="Base Resistor [Ω]"/>
-    <tableColumn id="2" name="Switching Frequency [kHz]"/>
-    <tableColumn id="3" name="Input Voltage [volts]"/>
-    <tableColumn id="4" name="Input Current [mA]"/>
-    <tableColumn id="10" name="Input Power [mW]" dataDxfId="10">
+    <tableColumn id="2" name="Switching Frequency [kHz]" dataDxfId="38"/>
+    <tableColumn id="3" name="Input Voltage [volts]" dataDxfId="37"/>
+    <tableColumn id="4" name="Input Current [mA]" dataDxfId="36"/>
+    <tableColumn id="10" name="Input Power [mW]" dataDxfId="35">
       <calculatedColumnFormula>(D50 * (E50/1000))*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
-    <tableColumn id="6" name="LED Current [mA]">
+    <tableColumn id="5" name="LED Current Sensor Voltage [volts]" dataDxfId="34"/>
+    <tableColumn id="6" name="LED Current [mA]" dataDxfId="33">
       <calculatedColumnFormula>($N$5*G50)*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="LED Light Level [volts]"/>
-    <tableColumn id="8" name="TEMT6000 Collector Current [uA]">
+    <tableColumn id="7" name="LED Light Level [volts]" dataDxfId="32"/>
+    <tableColumn id="8" name="TEMT6000 Collector Current [uA]" dataDxfId="31">
       <calculatedColumnFormula>(I50/$N$9)*10^6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="LED Light Level [lx]">
+    <tableColumn id="9" name="LED Light Level [lx]" dataDxfId="30">
       <calculatedColumnFormula>J50*2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3762,27 +6167,27 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table511121314" displayName="Table511121314" ref="B61:K71" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table511121314" displayName="Table511121314" ref="B61:K71" totalsRowShown="0" headerRowDxfId="71" headerRowBorderDxfId="70">
   <autoFilter ref="B61:K71">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" name="Base Resistor [Ω]"/>
-    <tableColumn id="2" name="Switching Frequency [kHz]"/>
-    <tableColumn id="3" name="Input Voltage [volts]"/>
-    <tableColumn id="4" name="Input Current [mA]"/>
-    <tableColumn id="10" name="Input Power [mW]" dataDxfId="7">
+    <tableColumn id="2" name="Switching Frequency [kHz]" dataDxfId="29"/>
+    <tableColumn id="3" name="Input Voltage [volts]" dataDxfId="28"/>
+    <tableColumn id="4" name="Input Current [mA]" dataDxfId="27"/>
+    <tableColumn id="10" name="Input Power [mW]" dataDxfId="26">
       <calculatedColumnFormula>(D62 * (E62/1000))*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
-    <tableColumn id="6" name="LED Current [mA]">
+    <tableColumn id="5" name="LED Current Sensor Voltage [volts]" dataDxfId="25"/>
+    <tableColumn id="6" name="LED Current [mA]" dataDxfId="24">
       <calculatedColumnFormula>($N$5*G62)*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="LED Light Level [volts]"/>
-    <tableColumn id="8" name="TEMT6000 Collector Current [uA]">
+    <tableColumn id="7" name="LED Light Level [volts]" dataDxfId="23"/>
+    <tableColumn id="8" name="TEMT6000 Collector Current [uA]" dataDxfId="22">
       <calculatedColumnFormula>(I62/$N$9)*10^6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="LED Light Level [lx]">
+    <tableColumn id="9" name="LED Light Level [lx]" dataDxfId="21">
       <calculatedColumnFormula>J62*2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3791,27 +6196,27 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table51112131415" displayName="Table51112131415" ref="B73:K83" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table51112131415" displayName="Table51112131415" ref="B73:K83" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68">
   <autoFilter ref="B73:K83">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" name="Base Resistor [Ω]"/>
-    <tableColumn id="2" name="Switching Frequency [kHz]"/>
-    <tableColumn id="3" name="Input Voltage [volts]"/>
-    <tableColumn id="4" name="Input Current [mA]"/>
-    <tableColumn id="10" name="Input Power [mW]" dataDxfId="4">
+    <tableColumn id="2" name="Switching Frequency [kHz]" dataDxfId="20"/>
+    <tableColumn id="3" name="Input Voltage [volts]" dataDxfId="19"/>
+    <tableColumn id="4" name="Input Current [mA]" dataDxfId="18"/>
+    <tableColumn id="10" name="Input Power [mW]" dataDxfId="17">
       <calculatedColumnFormula>(D74 * (E74/1000))*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
-    <tableColumn id="6" name="LED Current [mA]">
+    <tableColumn id="5" name="LED Current Sensor Voltage [volts]" dataDxfId="16"/>
+    <tableColumn id="6" name="LED Current [mA]" dataDxfId="15">
       <calculatedColumnFormula>($N$5*G74)*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="LED Light Level [volts]"/>
-    <tableColumn id="8" name="TEMT6000 Collector Current [uA]">
+    <tableColumn id="7" name="LED Light Level [volts]" dataDxfId="14"/>
+    <tableColumn id="8" name="TEMT6000 Collector Current [uA]" dataDxfId="13">
       <calculatedColumnFormula>(I74/$N$9)*10^6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="LED Light Level [lx]">
+    <tableColumn id="9" name="LED Light Level [lx]" dataDxfId="12">
       <calculatedColumnFormula>J74*2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3820,27 +6225,27 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table5111213141516" displayName="Table5111213141516" ref="B85:K95" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table5111213141516" displayName="Table5111213141516" ref="B85:K95" totalsRowShown="0" headerRowDxfId="67" headerRowBorderDxfId="66">
   <autoFilter ref="B85:K95">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" name="Base Resistor [Ω]"/>
-    <tableColumn id="2" name="Switching Frequency [kHz]"/>
-    <tableColumn id="3" name="Input Voltage [volts]"/>
-    <tableColumn id="4" name="Input Current [mA]"/>
-    <tableColumn id="10" name="Input Power [mW]" dataDxfId="1">
+    <tableColumn id="2" name="Switching Frequency [kHz]" dataDxfId="11"/>
+    <tableColumn id="3" name="Input Voltage [volts]" dataDxfId="10"/>
+    <tableColumn id="4" name="Input Current [mA]" dataDxfId="9"/>
+    <tableColumn id="10" name="Input Power [mW]" dataDxfId="8">
       <calculatedColumnFormula>(D86 * (E86/1000))*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="LED Current Sensor Voltage [volts]"/>
-    <tableColumn id="6" name="LED Current [mA]">
+    <tableColumn id="5" name="LED Current Sensor Voltage [volts]" dataDxfId="7"/>
+    <tableColumn id="6" name="LED Current [mA]" dataDxfId="6">
       <calculatedColumnFormula>($N$5*G86)*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="LED Light Level [volts]"/>
-    <tableColumn id="8" name="TEMT6000 Collector Current [uA]">
+    <tableColumn id="7" name="LED Light Level [volts]" dataDxfId="5"/>
+    <tableColumn id="8" name="TEMT6000 Collector Current [uA]" dataDxfId="4">
       <calculatedColumnFormula>(I86/$N$9)*10^6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="LED Light Level [lx]">
+    <tableColumn id="9" name="LED Light Level [lx]" dataDxfId="3">
       <calculatedColumnFormula>J86*2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4173,7 +6578,7 @@
   <dimension ref="A2:O96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4229,13 +6634,13 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="6"/>
-      <c r="B4">
+      <c r="B4" s="10">
         <v>1000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>0.4002</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>0.52</v>
       </c>
       <c r="M4" t="s">
@@ -4250,13 +6655,13 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="6"/>
-      <c r="B5">
+      <c r="B5" s="10">
         <v>1500</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>0.42780000000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>0.51</v>
       </c>
       <c r="M5" t="s">
@@ -4268,25 +6673,25 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="6"/>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>2200</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>0.46960000000000002</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>0.52</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="6"/>
-      <c r="B7">
+      <c r="B7" s="10">
         <v>3300</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>0.53779999999999994</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>0.54</v>
       </c>
       <c r="M7" t="s">
@@ -4298,13 +6703,13 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="6"/>
-      <c r="B8">
+      <c r="B8" s="10">
         <v>4700</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>0.57630000000000003</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>0.57999999999999996</v>
       </c>
       <c r="M8" t="s">
@@ -4316,13 +6721,13 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="6"/>
-      <c r="B9">
+      <c r="B9" s="10">
         <v>5600</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>0.58819999999999995</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>0.59</v>
       </c>
       <c r="M9" t="s">
@@ -4337,13 +6742,13 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="6"/>
-      <c r="B10">
+      <c r="B10" s="10">
         <v>6800</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>0.60970000000000002</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>0.6</v>
       </c>
     </row>
@@ -4396,35 +6801,35 @@
       <c r="B13">
         <v>1000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>58.8</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>1.5053000000000001</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>129.62</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ref="F13:F22" si="0">(D13 * (E13/1000))*1000</f>
         <v>195.11698600000003</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H13">
-        <f>($N$5*G13)*1000</f>
+      <c r="H13" s="8">
+        <f t="shared" ref="H13:H22" si="1">($N$5*G13)*1000</f>
         <v>28.999999999999996</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="8">
         <v>3.181</v>
       </c>
-      <c r="J13">
-        <f>(I13/$N$9)*10^6</f>
+      <c r="J13" s="9">
+        <f t="shared" ref="J13:J22" si="2">(I13/$N$9)*10^6</f>
         <v>318.09999999999997</v>
       </c>
-      <c r="K13">
-        <f t="shared" ref="K13:K22" si="1">J13*2</f>
+      <c r="K13" s="9">
+        <f t="shared" ref="K13:K22" si="3">J13*2</f>
         <v>636.19999999999993</v>
       </c>
     </row>
@@ -4433,35 +6838,35 @@
       <c r="B14">
         <v>1000</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>55.83</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>1.4016999999999999</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>112.94</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>158.307998</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <v>0.47449999999999998</v>
       </c>
-      <c r="H14">
-        <f>($N$5*G14)*1000</f>
+      <c r="H14" s="8">
+        <f t="shared" si="1"/>
         <v>23.724999999999998</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="8">
         <v>3.1749999999999998</v>
       </c>
-      <c r="J14">
-        <f>(I14/$N$9)*10^6</f>
+      <c r="J14" s="9">
+        <f t="shared" si="2"/>
         <v>317.49999999999994</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
+      <c r="K14" s="9">
+        <f t="shared" si="3"/>
         <v>634.99999999999989</v>
       </c>
     </row>
@@ -4470,35 +6875,35 @@
       <c r="B15">
         <v>1000</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>55.92</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>1.306</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>99.9</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>130.46940000000001</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <v>0.39400000000000002</v>
       </c>
-      <c r="H15">
-        <f>($N$5*G15)*1000</f>
+      <c r="H15" s="8">
+        <f t="shared" si="1"/>
         <v>19.700000000000003</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="8">
         <v>3.169</v>
       </c>
-      <c r="J15">
-        <f>(I15/$N$9)*10^6</f>
+      <c r="J15" s="9">
+        <f t="shared" si="2"/>
         <v>316.89999999999998</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
+      <c r="K15" s="9">
+        <f t="shared" si="3"/>
         <v>633.79999999999995</v>
       </c>
     </row>
@@ -4507,35 +6912,35 @@
       <c r="B16">
         <v>1000</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>58.7</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>1.2019</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>88.09</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="0"/>
         <v>105.875371</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <v>0.32</v>
       </c>
-      <c r="H16">
-        <f>($N$5*G16)*1000</f>
+      <c r="H16" s="8">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="8">
         <v>3.1659999999999999</v>
       </c>
-      <c r="J16">
-        <f>(I16/$N$9)*10^6</f>
+      <c r="J16" s="9">
+        <f t="shared" si="2"/>
         <v>316.60000000000002</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
+      <c r="K16" s="9">
+        <f t="shared" si="3"/>
         <v>633.20000000000005</v>
       </c>
     </row>
@@ -4544,35 +6949,35 @@
       <c r="B17">
         <v>1000</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>63.8</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>1.1022000000000001</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>77.02</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="0"/>
         <v>84.891443999999993</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>0.26200000000000001</v>
       </c>
-      <c r="H17">
-        <f>($N$5*G17)*1000</f>
+      <c r="H17" s="8">
+        <f t="shared" si="1"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="8">
         <v>3.1640000000000001</v>
       </c>
-      <c r="J17">
-        <f>(I17/$N$9)*10^6</f>
+      <c r="J17" s="9">
+        <f t="shared" si="2"/>
         <v>316.39999999999998</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
+      <c r="K17" s="9">
+        <f t="shared" si="3"/>
         <v>632.79999999999995</v>
       </c>
     </row>
@@ -4581,35 +6986,35 @@
       <c r="B18">
         <v>1000</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>73.349999999999994</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <v>1.0026999999999999</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>62.96</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
         <v>63.129991999999994</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <v>0.20050000000000001</v>
       </c>
-      <c r="H18">
-        <f>($N$5*G18)*1000</f>
+      <c r="H18" s="8">
+        <f t="shared" si="1"/>
         <v>10.025</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="8">
         <v>3.16</v>
       </c>
-      <c r="J18">
-        <f>(I18/$N$9)*10^6</f>
+      <c r="J18" s="9">
+        <f t="shared" si="2"/>
         <v>316.00000000000006</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
+      <c r="K18" s="9">
+        <f t="shared" si="3"/>
         <v>632.00000000000011</v>
       </c>
     </row>
@@ -4618,35 +7023,35 @@
       <c r="B19">
         <v>1000</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>88.23</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <v>0.90259999999999996</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>46.12</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="0"/>
         <v>41.627911999999995</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <v>0.13900000000000001</v>
       </c>
-      <c r="H19">
-        <f>($N$5*G19)*1000</f>
+      <c r="H19" s="8">
+        <f t="shared" si="1"/>
         <v>6.9500000000000011</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="8">
         <v>3.137</v>
       </c>
-      <c r="J19">
-        <f>(I19/$N$9)*10^6</f>
+      <c r="J19" s="9">
+        <f t="shared" si="2"/>
         <v>313.7</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
+      <c r="K19" s="9">
+        <f t="shared" si="3"/>
         <v>627.4</v>
       </c>
     </row>
@@ -4655,35 +7060,35 @@
       <c r="B20">
         <v>1000</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>102.7</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>0.80010000000000003</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>36.36</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="0"/>
         <v>29.091635999999998</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <v>0.10299999999999999</v>
       </c>
-      <c r="H20">
-        <f>($N$5*G20)*1000</f>
+      <c r="H20" s="8">
+        <f t="shared" si="1"/>
         <v>5.15</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="8">
         <v>2.8410000000000002</v>
       </c>
-      <c r="J20">
-        <f>(I20/$N$9)*10^6</f>
+      <c r="J20" s="9">
+        <f t="shared" si="2"/>
         <v>284.10000000000002</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="1"/>
+      <c r="K20" s="9">
+        <f t="shared" si="3"/>
         <v>568.20000000000005</v>
       </c>
     </row>
@@ -4692,35 +7097,35 @@
       <c r="B21">
         <v>1000</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>117.9</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>0.70499999999999996</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>28.7</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="0"/>
         <v>20.233499999999999</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <v>7.4300000000000005E-2</v>
       </c>
-      <c r="H21">
-        <f>($N$5*G21)*1000</f>
+      <c r="H21" s="8">
+        <f t="shared" si="1"/>
         <v>3.7150000000000003</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="8">
         <v>2.181</v>
       </c>
-      <c r="J21">
-        <f>(I21/$N$9)*10^6</f>
+      <c r="J21" s="9">
+        <f t="shared" si="2"/>
         <v>218.10000000000002</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="1"/>
+      <c r="K21" s="9">
+        <f t="shared" si="3"/>
         <v>436.20000000000005</v>
       </c>
     </row>
@@ -4729,35 +7134,35 @@
       <c r="B22">
         <v>1000</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>142.4</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <v>0.60250000000000004</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>20.472999999999999</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
         <v>12.334982499999999</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="7">
         <v>4.7E-2</v>
       </c>
-      <c r="H22">
-        <f>($N$5*G22)*1000</f>
+      <c r="H22" s="8">
+        <f t="shared" si="1"/>
         <v>2.35</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="8">
         <v>1.4570000000000001</v>
       </c>
-      <c r="J22">
-        <f>(I22/$N$9)*10^6</f>
+      <c r="J22" s="9">
+        <f t="shared" si="2"/>
         <v>145.70000000000002</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
+      <c r="K22" s="9">
+        <f t="shared" si="3"/>
         <v>291.40000000000003</v>
       </c>
     </row>
@@ -4801,35 +7206,35 @@
       <c r="B25">
         <v>1500</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>63.3</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <v>1.508</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>111.5</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" ref="F25:F34" si="2">(D25 * (E25/1000))*1000</f>
+        <f t="shared" ref="F25:F34" si="4">(D25 * (E25/1000))*1000</f>
         <v>168.14200000000002</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="7">
         <v>0.54</v>
       </c>
-      <c r="H25">
-        <f>($N$5*G25)*1000</f>
+      <c r="H25" s="8">
+        <f t="shared" ref="H25:H34" si="5">($N$5*G25)*1000</f>
         <v>27.000000000000004</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="8">
         <v>3.1840000000000002</v>
       </c>
-      <c r="J25">
-        <f>(I25/$N$9)*10^6</f>
+      <c r="J25" s="9">
+        <f t="shared" ref="J25:J34" si="6">(I25/$N$9)*10^6</f>
         <v>318.40000000000003</v>
       </c>
-      <c r="K25">
-        <f t="shared" ref="K25:K34" si="3">J25*2</f>
+      <c r="K25" s="9">
+        <f t="shared" ref="K25:K34" si="7">J25*2</f>
         <v>636.80000000000007</v>
       </c>
     </row>
@@ -4838,35 +7243,35 @@
       <c r="B26">
         <v>1500</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>62.5</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <v>1.4059999999999999</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>97.8</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>137.5068</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="7">
         <v>0.44400000000000001</v>
       </c>
-      <c r="H26">
-        <f>($N$5*G26)*1000</f>
+      <c r="H26" s="8">
+        <f t="shared" si="5"/>
         <v>22.2</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="8">
         <v>3.1789999999999998</v>
       </c>
-      <c r="J26">
-        <f>(I26/$N$9)*10^6</f>
+      <c r="J26" s="9">
+        <f t="shared" si="6"/>
         <v>317.89999999999998</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="3"/>
+      <c r="K26" s="9">
+        <f t="shared" si="7"/>
         <v>635.79999999999995</v>
       </c>
     </row>
@@ -4875,35 +7280,35 @@
       <c r="B27">
         <v>1500</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>64.400000000000006</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="7">
         <v>1.3009999999999999</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>86.6</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>112.66659999999999</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="7">
         <v>0.36399999999999999</v>
       </c>
-      <c r="H27">
-        <f>($N$5*G27)*1000</f>
+      <c r="H27" s="8">
+        <f t="shared" si="5"/>
         <v>18.2</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="8">
         <v>3.1749999999999998</v>
       </c>
-      <c r="J27">
-        <f>(I27/$N$9)*10^6</f>
+      <c r="J27" s="9">
+        <f t="shared" si="6"/>
         <v>317.49999999999994</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="3"/>
+      <c r="K27" s="9">
+        <f t="shared" si="7"/>
         <v>634.99999999999989</v>
       </c>
     </row>
@@ -4912,35 +7317,35 @@
       <c r="B28">
         <v>1500</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <v>68.400000000000006</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="7">
         <v>1.2070000000000001</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>77.5</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>93.542500000000004</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="7">
         <v>0.30199999999999999</v>
       </c>
-      <c r="H28">
-        <f>($N$5*G28)*1000</f>
+      <c r="H28" s="8">
+        <f t="shared" si="5"/>
         <v>15.100000000000001</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="8">
         <v>3.1720000000000002</v>
       </c>
-      <c r="J28">
-        <f>(I28/$N$9)*10^6</f>
+      <c r="J28" s="9">
+        <f t="shared" si="6"/>
         <v>317.2</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="3"/>
+      <c r="K28" s="9">
+        <f t="shared" si="7"/>
         <v>634.4</v>
       </c>
     </row>
@@ -4949,35 +7354,35 @@
       <c r="B29">
         <v>1500</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>75.099999999999994</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <v>1.107</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>66.7</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>73.836900000000014</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="7">
         <v>0.24099999999999999</v>
       </c>
-      <c r="H29">
-        <f>($N$5*G29)*1000</f>
+      <c r="H29" s="8">
+        <f t="shared" si="5"/>
         <v>12.05</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="8">
         <v>3.169</v>
       </c>
-      <c r="J29">
-        <f>(I29/$N$9)*10^6</f>
+      <c r="J29" s="9">
+        <f t="shared" si="6"/>
         <v>316.89999999999998</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="3"/>
+      <c r="K29" s="9">
+        <f t="shared" si="7"/>
         <v>633.79999999999995</v>
       </c>
     </row>
@@ -4986,35 +7391,35 @@
       <c r="B30">
         <v>1500</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>85</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="7">
         <v>1.0029999999999999</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <v>51.2</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51.3536</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="7">
         <v>0.17100000000000001</v>
       </c>
-      <c r="H30">
-        <f>($N$5*G30)*1000</f>
+      <c r="H30" s="8">
+        <f t="shared" si="5"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="8">
         <v>3.1560000000000001</v>
       </c>
-      <c r="J30">
-        <f>(I30/$N$9)*10^6</f>
+      <c r="J30" s="9">
+        <f t="shared" si="6"/>
         <v>315.60000000000002</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="3"/>
+      <c r="K30" s="9">
+        <f t="shared" si="7"/>
         <v>631.20000000000005</v>
       </c>
     </row>
@@ -5023,35 +7428,35 @@
       <c r="B31">
         <v>1500</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>97.1</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="7">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <v>41.1</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37.031100000000002</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="7">
         <v>0.128</v>
       </c>
-      <c r="H31">
-        <f>($N$5*G31)*1000</f>
+      <c r="H31" s="8">
+        <f t="shared" si="5"/>
         <v>6.4</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="8">
         <v>3.1230000000000002</v>
       </c>
-      <c r="J31">
-        <f>(I31/$N$9)*10^6</f>
+      <c r="J31" s="9">
+        <f t="shared" si="6"/>
         <v>312.3</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="3"/>
+      <c r="K31" s="9">
+        <f t="shared" si="7"/>
         <v>624.6</v>
       </c>
     </row>
@@ -5060,35 +7465,35 @@
       <c r="B32">
         <v>1500</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>109.4</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="7">
         <v>0.80200000000000005</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <v>33.700000000000003</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27.027400000000004</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="7">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="H32">
-        <f>($N$5*G32)*1000</f>
+      <c r="H32" s="8">
+        <f t="shared" si="5"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="8">
         <v>2.7050000000000001</v>
       </c>
-      <c r="J32">
-        <f>(I32/$N$9)*10^6</f>
+      <c r="J32" s="9">
+        <f t="shared" si="6"/>
         <v>270.5</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="3"/>
+      <c r="K32" s="9">
+        <f t="shared" si="7"/>
         <v>541</v>
       </c>
     </row>
@@ -5097,35 +7502,35 @@
       <c r="B33">
         <v>1500</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>125.4</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="7">
         <v>0.70099999999999996</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
         <v>26.6</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.646599999999999</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="7">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H33">
-        <f>($N$5*G33)*1000</f>
+      <c r="H33" s="8">
+        <f t="shared" si="5"/>
         <v>3.4000000000000004</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="8">
         <v>2.0299999999999998</v>
       </c>
-      <c r="J33">
-        <f>(I33/$N$9)*10^6</f>
+      <c r="J33" s="9">
+        <f t="shared" si="6"/>
         <v>202.99999999999997</v>
       </c>
-      <c r="K33">
-        <f t="shared" si="3"/>
+      <c r="K33" s="9">
+        <f t="shared" si="7"/>
         <v>405.99999999999994</v>
       </c>
     </row>
@@ -5134,35 +7539,35 @@
       <c r="B34">
         <v>1500</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <v>150.30000000000001</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="7">
         <v>0.60299999999999998</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="4">
         <v>19.2</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.577599999999999</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="7">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H34">
-        <f>($N$5*G34)*1000</f>
+      <c r="H34" s="8">
+        <f t="shared" si="5"/>
         <v>2.15</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="8">
         <v>1.349</v>
       </c>
-      <c r="J34">
-        <f>(I34/$N$9)*10^6</f>
+      <c r="J34" s="9">
+        <f t="shared" si="6"/>
         <v>134.9</v>
       </c>
-      <c r="K34">
-        <f t="shared" si="3"/>
+      <c r="K34" s="9">
+        <f t="shared" si="7"/>
         <v>269.8</v>
       </c>
     </row>
@@ -5214,35 +7619,35 @@
       <c r="B37">
         <v>2200</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <v>71.2</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="7">
         <v>1.502</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
         <v>93.6</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" ref="F37:F46" si="4">(D37 * (E37/1000))*1000</f>
+        <f t="shared" ref="F37:F46" si="8">(D37 * (E37/1000))*1000</f>
         <v>140.5872</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="7">
         <v>0.48399999999999999</v>
       </c>
-      <c r="H37">
-        <f>($N$5*G37)*1000</f>
+      <c r="H37" s="8">
+        <f t="shared" ref="H37:H46" si="9">($N$5*G37)*1000</f>
         <v>24.2</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="8">
         <v>3.1869999999999998</v>
       </c>
-      <c r="J37">
-        <f>(I37/$N$9)*10^6</f>
+      <c r="J37" s="9">
+        <f t="shared" ref="J37:J46" si="10">(I37/$N$9)*10^6</f>
         <v>318.7</v>
       </c>
-      <c r="K37">
-        <f t="shared" ref="K37:K46" si="5">J37*2</f>
+      <c r="K37" s="9">
+        <f t="shared" ref="K37:K46" si="11">J37*2</f>
         <v>637.4</v>
       </c>
     </row>
@@ -5251,35 +7656,35 @@
       <c r="B38">
         <v>2200</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <v>72.3</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="7">
         <v>1.4079999999999999</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="4">
         <v>84.2</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>118.55359999999999</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="7">
         <v>0.40699999999999997</v>
       </c>
-      <c r="H38">
-        <f>($N$5*G38)*1000</f>
+      <c r="H38" s="8">
+        <f t="shared" si="9"/>
         <v>20.350000000000001</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="8">
         <v>3.1840000000000002</v>
       </c>
-      <c r="J38">
-        <f>(I38/$N$9)*10^6</f>
+      <c r="J38" s="9">
+        <f t="shared" si="10"/>
         <v>318.40000000000003</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="5"/>
+      <c r="K38" s="9">
+        <f t="shared" si="11"/>
         <v>636.80000000000007</v>
       </c>
     </row>
@@ -5288,35 +7693,35 @@
       <c r="B39">
         <v>2200</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <v>76.2</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="7">
         <v>1.304</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="4">
         <v>75.099999999999994</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>97.930400000000006</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="7">
         <v>0.33500000000000002</v>
       </c>
-      <c r="H39">
-        <f>($N$5*G39)*1000</f>
+      <c r="H39" s="8">
+        <f t="shared" si="9"/>
         <v>16.75</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="8">
         <v>3.18</v>
       </c>
-      <c r="J39">
-        <f>(I39/$N$9)*10^6</f>
+      <c r="J39" s="9">
+        <f t="shared" si="10"/>
         <v>318.00000000000006</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="5"/>
+      <c r="K39" s="9">
+        <f t="shared" si="11"/>
         <v>636.00000000000011</v>
       </c>
     </row>
@@ -5325,35 +7730,35 @@
       <c r="B40">
         <v>2200</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="4">
         <v>81.2</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="7">
         <v>1.208</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
         <v>66.099999999999994</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>79.848799999999983</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="7">
         <v>0.27200000000000002</v>
       </c>
-      <c r="H40">
-        <f>($N$5*G40)*1000</f>
+      <c r="H40" s="8">
+        <f t="shared" si="9"/>
         <v>13.600000000000001</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="8">
         <v>3.1760000000000002</v>
       </c>
-      <c r="J40">
-        <f>(I40/$N$9)*10^6</f>
+      <c r="J40" s="9">
+        <f t="shared" si="10"/>
         <v>317.60000000000002</v>
       </c>
-      <c r="K40">
-        <f t="shared" si="5"/>
+      <c r="K40" s="9">
+        <f t="shared" si="11"/>
         <v>635.20000000000005</v>
       </c>
     </row>
@@ -5362,35 +7767,35 @@
       <c r="B41">
         <v>2200</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>87.8</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="7">
         <v>1.105</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <v>53.4</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>59.006999999999998</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="7">
         <v>0.20100000000000001</v>
       </c>
-      <c r="H41">
-        <f>($N$5*G41)*1000</f>
+      <c r="H41" s="8">
+        <f t="shared" si="9"/>
         <v>10.050000000000002</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="8">
         <v>3.1669999999999998</v>
       </c>
-      <c r="J41">
-        <f>(I41/$N$9)*10^6</f>
+      <c r="J41" s="9">
+        <f t="shared" si="10"/>
         <v>316.7</v>
       </c>
-      <c r="K41">
-        <f t="shared" si="5"/>
+      <c r="K41" s="9">
+        <f t="shared" si="11"/>
         <v>633.4</v>
       </c>
     </row>
@@ -5399,35 +7804,35 @@
       <c r="B42">
         <v>2200</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="4">
         <v>96.6</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="7">
         <v>1.0009999999999999</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <v>43.3</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>43.343299999999992</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="7">
         <v>0.15</v>
       </c>
-      <c r="H42">
-        <f>($N$5*G42)*1000</f>
+      <c r="H42" s="8">
+        <f t="shared" si="9"/>
         <v>7.5</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="8">
         <v>3.149</v>
       </c>
-      <c r="J42">
-        <f>(I42/$N$9)*10^6</f>
+      <c r="J42" s="9">
+        <f t="shared" si="10"/>
         <v>314.90000000000003</v>
       </c>
-      <c r="K42">
-        <f t="shared" si="5"/>
+      <c r="K42" s="9">
+        <f t="shared" si="11"/>
         <v>629.80000000000007</v>
       </c>
     </row>
@@ -5436,35 +7841,35 @@
       <c r="B43">
         <v>2200</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <v>106.5</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="7">
         <v>0.90400000000000003</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <v>37</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33.448</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="7">
         <v>0.11799999999999999</v>
       </c>
-      <c r="H43">
-        <f>($N$5*G43)*1000</f>
+      <c r="H43" s="8">
+        <f t="shared" si="9"/>
         <v>5.8999999999999995</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="8">
         <v>3.0950000000000002</v>
       </c>
-      <c r="J43">
-        <f>(I43/$N$9)*10^6</f>
+      <c r="J43" s="9">
+        <f t="shared" si="10"/>
         <v>309.50000000000006</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="5"/>
+      <c r="K43" s="9">
+        <f t="shared" si="11"/>
         <v>619.00000000000011</v>
       </c>
     </row>
@@ -5473,35 +7878,35 @@
       <c r="B44">
         <v>2200</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="4">
         <v>118.5</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="7">
         <v>0.80600000000000005</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
         <v>30.8</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>24.8248</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="7">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="H44">
-        <f>($N$5*G44)*1000</f>
+      <c r="H44" s="8">
+        <f t="shared" si="9"/>
         <v>4.45</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="8">
         <v>2.5550000000000002</v>
       </c>
-      <c r="J44">
-        <f>(I44/$N$9)*10^6</f>
+      <c r="J44" s="9">
+        <f t="shared" si="10"/>
         <v>255.50000000000003</v>
       </c>
-      <c r="K44">
-        <f t="shared" si="5"/>
+      <c r="K44" s="9">
+        <f t="shared" si="11"/>
         <v>511.00000000000006</v>
       </c>
     </row>
@@ -5510,35 +7915,35 @@
       <c r="B45">
         <v>2200</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="4">
         <v>136.1</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="7">
         <v>0.70099999999999996</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <v>24.9</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17.454899999999999</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="7">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H45">
-        <f>($N$5*G45)*1000</f>
+      <c r="H45" s="8">
+        <f t="shared" si="9"/>
         <v>3.0500000000000003</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="8">
         <v>1.8620000000000001</v>
       </c>
-      <c r="J45">
-        <f>(I45/$N$9)*10^6</f>
+      <c r="J45" s="9">
+        <f t="shared" si="10"/>
         <v>186.2</v>
       </c>
-      <c r="K45">
-        <f t="shared" si="5"/>
+      <c r="K45" s="9">
+        <f t="shared" si="11"/>
         <v>372.4</v>
       </c>
     </row>
@@ -5547,35 +7952,35 @@
       <c r="B46">
         <v>2200</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="4">
         <v>164.8</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="7">
         <v>0.6</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
         <v>17</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.200000000000001</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="7">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="H46">
-        <f>($N$5*G46)*1000</f>
+      <c r="H46" s="8">
+        <f t="shared" si="9"/>
         <v>1.85</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="8">
         <v>1.1679999999999999</v>
       </c>
-      <c r="J46">
-        <f>(I46/$N$9)*10^6</f>
+      <c r="J46" s="9">
+        <f t="shared" si="10"/>
         <v>116.8</v>
       </c>
-      <c r="K46">
-        <f t="shared" si="5"/>
+      <c r="K46" s="9">
+        <f t="shared" si="11"/>
         <v>233.6</v>
       </c>
     </row>
@@ -5627,35 +8032,35 @@
       <c r="B50">
         <v>3300</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <v>83.8</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="7">
         <v>1.514</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
         <v>80.3</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" ref="F50:F59" si="6">(D50 * (E50/1000))*1000</f>
+        <f t="shared" ref="F50:F59" si="12">(D50 * (E50/1000))*1000</f>
         <v>121.57419999999999</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="7">
         <v>0.443</v>
       </c>
-      <c r="H50">
-        <f>($N$5*G50)*1000</f>
+      <c r="H50" s="8">
+        <f t="shared" ref="H50:H59" si="13">($N$5*G50)*1000</f>
         <v>22.150000000000002</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="8">
         <v>3.1920000000000002</v>
       </c>
-      <c r="J50">
-        <f>(I50/$N$9)*10^6</f>
+      <c r="J50" s="9">
+        <f t="shared" ref="J50:J59" si="14">(I50/$N$9)*10^6</f>
         <v>319.2</v>
       </c>
-      <c r="K50">
-        <f t="shared" ref="K50:K59" si="7">J50*2</f>
+      <c r="K50" s="9">
+        <f t="shared" ref="K50:K59" si="15">J50*2</f>
         <v>638.4</v>
       </c>
     </row>
@@ -5664,35 +8069,35 @@
       <c r="B51">
         <v>3300</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="4">
         <v>87.2</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="7">
         <v>1.4019999999999999</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>71.3</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>99.962599999999995</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="7">
         <v>0.36199999999999999</v>
       </c>
-      <c r="H51">
-        <f>($N$5*G51)*1000</f>
+      <c r="H51" s="8">
+        <f t="shared" si="13"/>
         <v>18.100000000000001</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="8">
         <v>3.1880000000000002</v>
       </c>
-      <c r="J51">
-        <f>(I51/$N$9)*10^6</f>
+      <c r="J51" s="9">
+        <f t="shared" si="14"/>
         <v>318.8</v>
       </c>
-      <c r="K51">
-        <f t="shared" si="7"/>
+      <c r="K51" s="9">
+        <f t="shared" si="15"/>
         <v>637.6</v>
       </c>
     </row>
@@ -5701,35 +8106,35 @@
       <c r="B52">
         <v>3300</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="4">
         <v>92</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="7">
         <v>1.3069999999999999</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>62.7</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>81.948900000000009</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="7">
         <v>0.29199999999999998</v>
       </c>
-      <c r="H52">
-        <f>($N$5*G52)*1000</f>
+      <c r="H52" s="8">
+        <f t="shared" si="13"/>
         <v>14.6</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="8">
         <v>3.1829999999999998</v>
       </c>
-      <c r="J52">
-        <f>(I52/$N$9)*10^6</f>
+      <c r="J52" s="9">
+        <f t="shared" si="14"/>
         <v>318.3</v>
       </c>
-      <c r="K52">
-        <f t="shared" si="7"/>
+      <c r="K52" s="9">
+        <f t="shared" si="15"/>
         <v>636.6</v>
       </c>
     </row>
@@ -5738,35 +8143,35 @@
       <c r="B53">
         <v>3300</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="4">
         <v>96.1</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="7">
         <v>1.2070000000000001</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <v>52</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>62.764000000000003</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="7">
         <v>0.224</v>
       </c>
-      <c r="H53">
-        <f>($N$5*G53)*1000</f>
+      <c r="H53" s="8">
+        <f t="shared" si="13"/>
         <v>11.200000000000001</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="8">
         <v>3.1749999999999998</v>
       </c>
-      <c r="J53">
-        <f>(I53/$N$9)*10^6</f>
+      <c r="J53" s="9">
+        <f t="shared" si="14"/>
         <v>317.49999999999994</v>
       </c>
-      <c r="K53">
-        <f t="shared" si="7"/>
+      <c r="K53" s="9">
+        <f t="shared" si="15"/>
         <v>634.99999999999989</v>
       </c>
     </row>
@@ -5775,35 +8180,35 @@
       <c r="B54">
         <v>3300</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="4">
         <v>100.9</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="7">
         <v>1.1060000000000001</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="4">
         <v>42.7</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>47.226200000000006</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="7">
         <v>0.16800000000000001</v>
       </c>
-      <c r="H54">
-        <f>($N$5*G54)*1000</f>
+      <c r="H54" s="8">
+        <f t="shared" si="13"/>
         <v>8.4</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="8">
         <v>3.16</v>
       </c>
-      <c r="J54">
-        <f>(I54/$N$9)*10^6</f>
+      <c r="J54" s="9">
+        <f t="shared" si="14"/>
         <v>316.00000000000006</v>
       </c>
-      <c r="K54">
-        <f t="shared" si="7"/>
+      <c r="K54" s="9">
+        <f t="shared" si="15"/>
         <v>632.00000000000011</v>
       </c>
     </row>
@@ -5812,35 +8217,35 @@
       <c r="B55">
         <v>3300</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="4">
         <v>109.7</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="7">
         <v>1.004</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="4">
         <v>37.5</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>37.65</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="7">
         <v>0.13400000000000001</v>
       </c>
-      <c r="H55">
-        <f>($N$5*G55)*1000</f>
+      <c r="H55" s="8">
+        <f t="shared" si="13"/>
         <v>6.7000000000000011</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="8">
         <v>3.137</v>
       </c>
-      <c r="J55">
-        <f>(I55/$N$9)*10^6</f>
+      <c r="J55" s="9">
+        <f t="shared" si="14"/>
         <v>313.7</v>
       </c>
-      <c r="K55">
-        <f t="shared" si="7"/>
+      <c r="K55" s="9">
+        <f t="shared" si="15"/>
         <v>627.4</v>
       </c>
     </row>
@@ -5849,35 +8254,35 @@
       <c r="B56">
         <v>3300</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="4">
         <v>125.3</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="7">
         <v>0.90800000000000003</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="4">
         <v>32.5</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>29.51</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="7">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="H56">
-        <f>($N$5*G56)*1000</f>
+      <c r="H56" s="8">
+        <f t="shared" si="13"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="8">
         <v>2.7469999999999999</v>
       </c>
-      <c r="J56">
-        <f>(I56/$N$9)*10^6</f>
+      <c r="J56" s="9">
+        <f t="shared" si="14"/>
         <v>274.7</v>
       </c>
-      <c r="K56">
-        <f t="shared" si="7"/>
+      <c r="K56" s="9">
+        <f t="shared" si="15"/>
         <v>549.4</v>
       </c>
     </row>
@@ -5886,35 +8291,35 @@
       <c r="B57">
         <v>3300</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="4">
         <v>135.5</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="7">
         <v>0.80400000000000005</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="4">
         <v>26.4</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>21.2256</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="7">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H57">
-        <f>($N$5*G57)*1000</f>
+      <c r="H57" s="8">
+        <f t="shared" si="13"/>
         <v>3.8</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="8">
         <v>2.2570000000000001</v>
       </c>
-      <c r="J57">
-        <f>(I57/$N$9)*10^6</f>
+      <c r="J57" s="9">
+        <f t="shared" si="14"/>
         <v>225.70000000000002</v>
       </c>
-      <c r="K57">
-        <f t="shared" si="7"/>
+      <c r="K57" s="9">
+        <f t="shared" si="15"/>
         <v>451.40000000000003</v>
       </c>
     </row>
@@ -5923,35 +8328,35 @@
       <c r="B58">
         <v>3300</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="4">
         <v>154.4</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="7">
         <v>0.70699999999999996</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="4">
         <v>20.7</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>14.6349</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="7">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="H58">
-        <f>($N$5*G58)*1000</f>
+      <c r="H58" s="8">
+        <f t="shared" si="13"/>
         <v>2.6</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="8">
         <v>1.619</v>
       </c>
-      <c r="J58">
-        <f>(I58/$N$9)*10^6</f>
+      <c r="J58" s="9">
+        <f t="shared" si="14"/>
         <v>161.9</v>
       </c>
-      <c r="K58">
-        <f t="shared" si="7"/>
+      <c r="K58" s="9">
+        <f t="shared" si="15"/>
         <v>323.8</v>
       </c>
     </row>
@@ -5960,35 +8365,35 @@
       <c r="B59">
         <v>3300</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="4">
         <v>194.1</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="7">
         <v>0.60199999999999998</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="4">
         <v>13.4</v>
       </c>
       <c r="F59" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>8.0668000000000006</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="7">
         <v>2.7E-2</v>
       </c>
-      <c r="H59">
-        <f>($N$5*G59)*1000</f>
+      <c r="H59" s="8">
+        <f t="shared" si="13"/>
         <v>1.35</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="8">
         <v>0.877</v>
       </c>
-      <c r="J59">
-        <f>(I59/$N$9)*10^6</f>
+      <c r="J59" s="9">
+        <f t="shared" si="14"/>
         <v>87.7</v>
       </c>
-      <c r="K59">
-        <f t="shared" si="7"/>
+      <c r="K59" s="9">
+        <f t="shared" si="15"/>
         <v>175.4</v>
       </c>
     </row>
@@ -6040,35 +8445,35 @@
       <c r="B62">
         <v>4700</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="4">
         <v>107.3</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="7">
         <v>1.506</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="4">
         <v>67.099999999999994</v>
       </c>
       <c r="F62" s="4">
-        <f t="shared" ref="F62:F71" si="8">(D62 * (E62/1000))*1000</f>
+        <f t="shared" ref="F62:F71" si="16">(D62 * (E62/1000))*1000</f>
         <v>101.0526</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="7">
         <v>0.38500000000000001</v>
       </c>
-      <c r="H62">
-        <f>($N$5*G62)*1000</f>
+      <c r="H62" s="8">
+        <f t="shared" ref="H62:H71" si="17">($N$5*G62)*1000</f>
         <v>19.250000000000004</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="8">
         <v>3.1960000000000002</v>
       </c>
-      <c r="J62">
-        <f>(I62/$N$9)*10^6</f>
+      <c r="J62" s="9">
+        <f t="shared" ref="J62:J71" si="18">(I62/$N$9)*10^6</f>
         <v>319.60000000000002</v>
       </c>
-      <c r="K62">
-        <f t="shared" ref="K62:K71" si="9">J62*2</f>
+      <c r="K62" s="9">
+        <f t="shared" ref="K62:K71" si="19">J62*2</f>
         <v>639.20000000000005</v>
       </c>
     </row>
@@ -6077,35 +8482,35 @@
       <c r="B63">
         <v>4700</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="4">
         <v>109.9</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="7">
         <v>1.4059999999999999</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="4">
         <v>58.7</v>
       </c>
       <c r="F63" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>82.532200000000003</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="7">
         <v>0.31</v>
       </c>
-      <c r="H63">
-        <f>($N$5*G63)*1000</f>
+      <c r="H63" s="8">
+        <f t="shared" si="17"/>
         <v>15.5</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="8">
         <v>3.19</v>
       </c>
-      <c r="J63">
-        <f>(I63/$N$9)*10^6</f>
+      <c r="J63" s="9">
+        <f t="shared" si="18"/>
         <v>319</v>
       </c>
-      <c r="K63">
-        <f t="shared" si="9"/>
+      <c r="K63" s="9">
+        <f t="shared" si="19"/>
         <v>638</v>
       </c>
     </row>
@@ -6114,35 +8519,35 @@
       <c r="B64">
         <v>4700</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="4">
         <v>109.8</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="7">
         <v>1.304</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="4">
         <v>48.3</v>
       </c>
       <c r="F64" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>62.983200000000004</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="7">
         <v>0.23400000000000001</v>
       </c>
-      <c r="H64">
-        <f>($N$5*G64)*1000</f>
+      <c r="H64" s="8">
+        <f t="shared" si="17"/>
         <v>11.700000000000003</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="8">
         <v>3.181</v>
       </c>
-      <c r="J64">
-        <f>(I64/$N$9)*10^6</f>
+      <c r="J64" s="9">
+        <f t="shared" si="18"/>
         <v>318.09999999999997</v>
       </c>
-      <c r="K64">
-        <f t="shared" si="9"/>
+      <c r="K64" s="9">
+        <f t="shared" si="19"/>
         <v>636.19999999999993</v>
       </c>
     </row>
@@ -6151,35 +8556,35 @@
       <c r="B65">
         <v>4700</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="4">
         <v>110.9</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="7">
         <v>1.206</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="4">
         <v>39.799999999999997</v>
       </c>
       <c r="F65" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>47.998799999999996</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="7">
         <v>0.17399999999999999</v>
       </c>
-      <c r="H65">
-        <f>($N$5*G65)*1000</f>
+      <c r="H65" s="8">
+        <f t="shared" si="17"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="8">
         <v>3.1659999999999999</v>
       </c>
-      <c r="J65">
-        <f>(I65/$N$9)*10^6</f>
+      <c r="J65" s="9">
+        <f t="shared" si="18"/>
         <v>316.60000000000002</v>
       </c>
-      <c r="K65">
-        <f t="shared" si="9"/>
+      <c r="K65" s="9">
+        <f t="shared" si="19"/>
         <v>633.20000000000005</v>
       </c>
     </row>
@@ -6188,35 +8593,35 @@
       <c r="B66">
         <v>4700</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="4">
         <v>117.8</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="7">
         <v>1.101</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="4">
         <v>35.700000000000003</v>
       </c>
       <c r="F66" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>39.305700000000002</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="7">
         <v>0.14299999999999999</v>
       </c>
-      <c r="H66">
-        <f>($N$5*G66)*1000</f>
+      <c r="H66" s="8">
+        <f t="shared" si="17"/>
         <v>7.15</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="8">
         <v>3.149</v>
       </c>
-      <c r="J66">
-        <f>(I66/$N$9)*10^6</f>
+      <c r="J66" s="9">
+        <f t="shared" si="18"/>
         <v>314.90000000000003</v>
       </c>
-      <c r="K66">
-        <f t="shared" si="9"/>
+      <c r="K66" s="9">
+        <f t="shared" si="19"/>
         <v>629.80000000000007</v>
       </c>
     </row>
@@ -6225,35 +8630,35 @@
       <c r="B67">
         <v>4700</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="4">
         <v>127</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="7">
         <v>1.006</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="4">
         <v>31.8</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>31.9908</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="7">
         <v>0.115</v>
       </c>
-      <c r="H67">
-        <f>($N$5*G67)*1000</f>
+      <c r="H67" s="8">
+        <f t="shared" si="17"/>
         <v>5.7500000000000009</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="8">
         <v>3.0939999999999999</v>
       </c>
-      <c r="J67">
-        <f>(I67/$N$9)*10^6</f>
+      <c r="J67" s="9">
+        <f t="shared" si="18"/>
         <v>309.39999999999998</v>
       </c>
-      <c r="K67">
-        <f t="shared" si="9"/>
+      <c r="K67" s="9">
+        <f t="shared" si="19"/>
         <v>618.79999999999995</v>
       </c>
     </row>
@@ -6262,35 +8667,35 @@
       <c r="B68">
         <v>4700</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="4">
         <v>138.69999999999999</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="7">
         <v>0.90800000000000003</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="4">
         <v>27.2</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>24.697600000000001</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="7">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="H68">
-        <f>($N$5*G68)*1000</f>
+      <c r="H68" s="8">
+        <f t="shared" si="17"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="8">
         <v>2.581</v>
       </c>
-      <c r="J68">
-        <f>(I68/$N$9)*10^6</f>
+      <c r="J68" s="9">
+        <f t="shared" si="18"/>
         <v>258.09999999999997</v>
       </c>
-      <c r="K68">
-        <f t="shared" si="9"/>
+      <c r="K68" s="9">
+        <f t="shared" si="19"/>
         <v>516.19999999999993</v>
       </c>
     </row>
@@ -6299,35 +8704,35 @@
       <c r="B69">
         <v>4700</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="4">
         <v>147.19999999999999</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="7">
         <v>0.80700000000000005</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="4">
         <v>20.7</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>16.704900000000002</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="7">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H69">
-        <f>($N$5*G69)*1000</f>
+      <c r="H69" s="8">
+        <f t="shared" si="17"/>
         <v>2.85</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="8">
         <v>1.7749999999999999</v>
       </c>
-      <c r="J69">
-        <f>(I69/$N$9)*10^6</f>
+      <c r="J69" s="9">
+        <f t="shared" si="18"/>
         <v>177.49999999999997</v>
       </c>
-      <c r="K69">
-        <f t="shared" si="9"/>
+      <c r="K69" s="9">
+        <f t="shared" si="19"/>
         <v>354.99999999999994</v>
       </c>
     </row>
@@ -6336,35 +8741,35 @@
       <c r="B70">
         <v>4700</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="4">
         <v>161.19999999999999</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="7">
         <v>0.70599999999999996</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="4">
         <v>14.1</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9.9545999999999992</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="7">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H70">
-        <f>($N$5*G70)*1000</f>
+      <c r="H70" s="8">
+        <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="8">
         <v>1.0469999999999999</v>
       </c>
-      <c r="J70">
-        <f>(I70/$N$9)*10^6</f>
+      <c r="J70" s="9">
+        <f t="shared" si="18"/>
         <v>104.7</v>
       </c>
-      <c r="K70">
-        <f t="shared" si="9"/>
+      <c r="K70" s="9">
+        <f t="shared" si="19"/>
         <v>209.4</v>
       </c>
     </row>
@@ -6373,35 +8778,35 @@
       <c r="B71">
         <v>4700</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="4">
         <v>192.9</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="7">
         <v>0.60499999999999998</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="4">
         <v>7.5</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>4.5374999999999996</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="7">
         <v>1.2E-2</v>
       </c>
-      <c r="H71">
-        <f>($N$5*G71)*1000</f>
+      <c r="H71" s="8">
+        <f t="shared" si="17"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="8">
         <v>0.39400000000000002</v>
       </c>
-      <c r="J71">
-        <f>(I71/$N$9)*10^6</f>
+      <c r="J71" s="9">
+        <f t="shared" si="18"/>
         <v>39.400000000000006</v>
       </c>
-      <c r="K71">
-        <f t="shared" si="9"/>
+      <c r="K71" s="9">
+        <f t="shared" si="19"/>
         <v>78.800000000000011</v>
       </c>
     </row>
@@ -6456,35 +8861,35 @@
       <c r="B74">
         <v>5600</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="4">
         <v>111.3</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="7">
         <v>1.5</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="4">
         <v>60.1</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" ref="F74:F83" si="10">(D74 * (E74/1000))*1000</f>
+        <f t="shared" ref="F74:F83" si="20">(D74 * (E74/1000))*1000</f>
         <v>90.15</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="7">
         <v>0.34499999999999997</v>
       </c>
-      <c r="H74">
-        <f>($N$5*G74)*1000</f>
+      <c r="H74" s="8">
+        <f t="shared" ref="H74:H83" si="21">($N$5*G74)*1000</f>
         <v>17.249999999999996</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="8">
         <v>3.194</v>
       </c>
-      <c r="J74">
-        <f>(I74/$N$9)*10^6</f>
+      <c r="J74" s="9">
+        <f t="shared" ref="J74:J83" si="22">(I74/$N$9)*10^6</f>
         <v>319.40000000000003</v>
       </c>
-      <c r="K74">
-        <f t="shared" ref="K74:K83" si="11">J74*2</f>
+      <c r="K74" s="9">
+        <f t="shared" ref="K74:K83" si="23">J74*2</f>
         <v>638.80000000000007</v>
       </c>
     </row>
@@ -6493,35 +8898,35 @@
       <c r="B75">
         <v>5600</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="4">
         <v>111.4</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="7">
         <v>1.403</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="4">
         <v>51.5</v>
       </c>
       <c r="F75" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>72.254499999999993</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="7">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H75">
-        <f>($N$5*G75)*1000</f>
+      <c r="H75" s="8">
+        <f t="shared" si="21"/>
         <v>13.750000000000002</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="8">
         <v>3.1869999999999998</v>
       </c>
-      <c r="J75">
-        <f>(I75/$N$9)*10^6</f>
+      <c r="J75" s="9">
+        <f t="shared" si="22"/>
         <v>318.7</v>
       </c>
-      <c r="K75">
-        <f t="shared" si="11"/>
+      <c r="K75" s="9">
+        <f t="shared" si="23"/>
         <v>637.4</v>
       </c>
     </row>
@@ -6530,35 +8935,35 @@
       <c r="B76">
         <v>5600</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="4">
         <v>111.5</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="7">
         <v>1.3009999999999999</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="4">
         <v>42.3</v>
       </c>
       <c r="F76" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>55.032299999999992</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="7">
         <v>0.20499999999999999</v>
       </c>
-      <c r="H76">
-        <f>($N$5*G76)*1000</f>
+      <c r="H76" s="8">
+        <f t="shared" si="21"/>
         <v>10.25</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="8">
         <v>3.1749999999999998</v>
       </c>
-      <c r="J76">
-        <f>(I76/$N$9)*10^6</f>
+      <c r="J76" s="9">
+        <f t="shared" si="22"/>
         <v>317.49999999999994</v>
       </c>
-      <c r="K76">
-        <f t="shared" si="11"/>
+      <c r="K76" s="9">
+        <f t="shared" si="23"/>
         <v>634.99999999999989</v>
       </c>
     </row>
@@ -6567,35 +8972,35 @@
       <c r="B77">
         <v>5600</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="4">
         <v>116</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="7">
         <v>1.2090000000000001</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="4">
         <v>37.299999999999997</v>
       </c>
       <c r="F77" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>45.095700000000001</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="7">
         <v>0.16600000000000001</v>
       </c>
-      <c r="H77">
-        <f>($N$5*G77)*1000</f>
+      <c r="H77" s="8">
+        <f t="shared" si="21"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="8">
         <v>3.1629999999999998</v>
       </c>
-      <c r="J77">
-        <f>(I77/$N$9)*10^6</f>
+      <c r="J77" s="9">
+        <f t="shared" si="22"/>
         <v>316.3</v>
       </c>
-      <c r="K77">
-        <f t="shared" si="11"/>
+      <c r="K77" s="9">
+        <f t="shared" si="23"/>
         <v>632.6</v>
       </c>
     </row>
@@ -6604,35 +9009,35 @@
       <c r="B78">
         <v>5600</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="4">
         <v>125.4</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="7">
         <v>1.105</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="F78" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>36.796499999999995</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="7">
         <v>0.13400000000000001</v>
       </c>
-      <c r="H78">
-        <f>($N$5*G78)*1000</f>
+      <c r="H78" s="8">
+        <f t="shared" si="21"/>
         <v>6.7000000000000011</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="8">
         <v>3.1419999999999999</v>
       </c>
-      <c r="J78">
-        <f>(I78/$N$9)*10^6</f>
+      <c r="J78" s="9">
+        <f t="shared" si="22"/>
         <v>314.2</v>
       </c>
-      <c r="K78">
-        <f t="shared" si="11"/>
+      <c r="K78" s="9">
+        <f t="shared" si="23"/>
         <v>628.4</v>
       </c>
     </row>
@@ -6641,35 +9046,35 @@
       <c r="B79">
         <v>5600</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="4">
         <v>135.9</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="7">
         <v>1.0029999999999999</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="4">
         <v>29.1</v>
       </c>
       <c r="F79" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>29.1873</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="7">
         <v>0.105</v>
       </c>
-      <c r="H79">
-        <f>($N$5*G79)*1000</f>
+      <c r="H79" s="8">
+        <f t="shared" si="21"/>
         <v>5.25</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="8">
         <v>2.964</v>
       </c>
-      <c r="J79">
-        <f>(I79/$N$9)*10^6</f>
+      <c r="J79" s="9">
+        <f t="shared" si="22"/>
         <v>296.39999999999998</v>
       </c>
-      <c r="K79">
-        <f t="shared" si="11"/>
+      <c r="K79" s="9">
+        <f t="shared" si="23"/>
         <v>592.79999999999995</v>
       </c>
     </row>
@@ -6678,35 +9083,35 @@
       <c r="B80">
         <v>5600</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="4">
         <v>144.30000000000001</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="7">
         <v>0.90200000000000002</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="4">
         <v>23.5</v>
       </c>
       <c r="F80" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>21.196999999999999</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="7">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="H80">
-        <f>($N$5*G80)*1000</f>
+      <c r="H80" s="8">
+        <f t="shared" si="21"/>
         <v>3.7</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="8">
         <v>2.2290000000000001</v>
       </c>
-      <c r="J80">
-        <f>(I80/$N$9)*10^6</f>
+      <c r="J80" s="9">
+        <f t="shared" si="22"/>
         <v>222.9</v>
       </c>
-      <c r="K80">
-        <f t="shared" si="11"/>
+      <c r="K80" s="9">
+        <f t="shared" si="23"/>
         <v>445.8</v>
       </c>
     </row>
@@ -6715,35 +9120,35 @@
       <c r="B81">
         <v>5600</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="4">
         <v>150.69999999999999</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="7">
         <v>0.80600000000000005</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="4">
         <v>17.5</v>
       </c>
       <c r="F81" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>14.105000000000002</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="7">
         <v>4.7E-2</v>
       </c>
-      <c r="H81">
-        <f>($N$5*G81)*1000</f>
+      <c r="H81" s="8">
+        <f t="shared" si="21"/>
         <v>2.35</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="8">
         <v>1.49</v>
       </c>
-      <c r="J81">
-        <f>(I81/$N$9)*10^6</f>
+      <c r="J81" s="9">
+        <f t="shared" si="22"/>
         <v>149</v>
       </c>
-      <c r="K81">
-        <f t="shared" si="11"/>
+      <c r="K81" s="9">
+        <f t="shared" si="23"/>
         <v>298</v>
       </c>
     </row>
@@ -6752,35 +9157,35 @@
       <c r="B82">
         <v>5600</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="4">
         <v>171.7</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="7">
         <v>0.70399999999999996</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="4">
         <v>12</v>
       </c>
       <c r="F82" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>8.4479999999999986</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="7">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H82">
-        <f>($N$5*G82)*1000</f>
+      <c r="H82" s="8">
+        <f t="shared" si="21"/>
         <v>1.3</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="8">
         <v>0.86099999999999999</v>
       </c>
-      <c r="J82">
-        <f>(I82/$N$9)*10^6</f>
+      <c r="J82" s="9">
+        <f t="shared" si="22"/>
         <v>86.1</v>
       </c>
-      <c r="K82">
-        <f t="shared" si="11"/>
+      <c r="K82" s="9">
+        <f t="shared" si="23"/>
         <v>172.2</v>
       </c>
     </row>
@@ -6789,35 +9194,35 @@
       <c r="B83">
         <v>5600</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="4">
         <v>195.3</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="7">
         <v>0.60199999999999998</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="4">
         <v>5.3</v>
       </c>
       <c r="F83" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.1905999999999999</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="7">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H83">
-        <f>($N$5*G83)*1000</f>
+      <c r="H83" s="8">
+        <f t="shared" si="21"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="8">
         <v>0.221</v>
       </c>
-      <c r="J83">
-        <f>(I83/$N$9)*10^6</f>
+      <c r="J83" s="9">
+        <f t="shared" si="22"/>
         <v>22.1</v>
       </c>
-      <c r="K83">
-        <f t="shared" si="11"/>
+      <c r="K83" s="9">
+        <f t="shared" si="23"/>
         <v>44.2</v>
       </c>
     </row>
@@ -6869,35 +9274,35 @@
       <c r="B86">
         <v>6800</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="4">
         <v>118.2</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="7">
         <v>1.5029999999999999</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="4">
         <v>52.6</v>
       </c>
       <c r="F86" s="4">
-        <f t="shared" ref="F86:F95" si="12">(D86 * (E86/1000))*1000</f>
+        <f t="shared" ref="F86:F95" si="24">(D86 * (E86/1000))*1000</f>
         <v>79.0578</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="7">
         <v>0.307</v>
       </c>
-      <c r="H86">
-        <f>($N$5*G86)*1000</f>
+      <c r="H86" s="8">
+        <f t="shared" ref="H86:H95" si="25">($N$5*G86)*1000</f>
         <v>15.350000000000001</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="8">
         <v>3.1930000000000001</v>
       </c>
-      <c r="J86">
-        <f>(I86/$N$9)*10^6</f>
+      <c r="J86" s="9">
+        <f t="shared" ref="J86:J95" si="26">(I86/$N$9)*10^6</f>
         <v>319.3</v>
       </c>
-      <c r="K86">
-        <f t="shared" ref="K86:K95" si="13">J86*2</f>
+      <c r="K86" s="9">
+        <f t="shared" ref="K86:K95" si="27">J86*2</f>
         <v>638.6</v>
       </c>
     </row>
@@ -6906,35 +9311,35 @@
       <c r="B87">
         <v>6800</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="4">
         <v>116.9</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="7">
         <v>1.4019999999999999</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="4">
         <v>44.1</v>
       </c>
       <c r="F87" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>61.828200000000002</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="7">
         <v>0.23699999999999999</v>
       </c>
-      <c r="H87">
-        <f>($N$5*G87)*1000</f>
+      <c r="H87" s="8">
+        <f t="shared" si="25"/>
         <v>11.85</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="8">
         <v>3.1829999999999998</v>
       </c>
-      <c r="J87">
-        <f>(I87/$N$9)*10^6</f>
+      <c r="J87" s="9">
+        <f t="shared" si="26"/>
         <v>318.3</v>
       </c>
-      <c r="K87">
-        <f t="shared" si="13"/>
+      <c r="K87" s="9">
+        <f t="shared" si="27"/>
         <v>636.6</v>
       </c>
     </row>
@@ -6943,35 +9348,35 @@
       <c r="B88">
         <v>6800</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="4">
         <v>118</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="7">
         <v>1.3080000000000001</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="4">
         <v>37.6</v>
       </c>
       <c r="F88" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>49.180800000000005</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="7">
         <v>0.185</v>
       </c>
-      <c r="H88">
-        <f>($N$5*G88)*1000</f>
+      <c r="H88" s="8">
+        <f t="shared" si="25"/>
         <v>9.25</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="8">
         <v>3.1709999999999998</v>
       </c>
-      <c r="J88">
-        <f>(I88/$N$9)*10^6</f>
+      <c r="J88" s="9">
+        <f t="shared" si="26"/>
         <v>317.09999999999997</v>
       </c>
-      <c r="K88">
-        <f t="shared" si="13"/>
+      <c r="K88" s="9">
+        <f t="shared" si="27"/>
         <v>634.19999999999993</v>
       </c>
     </row>
@@ -6980,35 +9385,35 @@
       <c r="B89">
         <v>6800</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="4">
         <v>126.5</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="7">
         <v>1.2030000000000001</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="4">
         <v>33.700000000000003</v>
       </c>
       <c r="F89" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>40.5411</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="7">
         <v>0.15</v>
       </c>
-      <c r="H89">
-        <f>($N$5*G89)*1000</f>
+      <c r="H89" s="8">
+        <f t="shared" si="25"/>
         <v>7.5</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="8">
         <v>3.157</v>
       </c>
-      <c r="J89">
-        <f>(I89/$N$9)*10^6</f>
+      <c r="J89" s="9">
+        <f t="shared" si="26"/>
         <v>315.7</v>
       </c>
-      <c r="K89">
-        <f t="shared" si="13"/>
+      <c r="K89" s="9">
+        <f t="shared" si="27"/>
         <v>631.4</v>
       </c>
     </row>
@@ -7017,35 +9422,35 @@
       <c r="B90">
         <v>6800</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="4">
         <v>136.1</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="7">
         <v>1.107</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="4">
         <v>30.1</v>
       </c>
       <c r="F90" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>33.320700000000002</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="7">
         <v>0.121</v>
       </c>
-      <c r="H90">
-        <f>($N$5*G90)*1000</f>
+      <c r="H90" s="8">
+        <f t="shared" si="25"/>
         <v>6.05</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="8">
         <v>3.1240000000000001</v>
       </c>
-      <c r="J90">
-        <f>(I90/$N$9)*10^6</f>
+      <c r="J90" s="9">
+        <f t="shared" si="26"/>
         <v>312.39999999999998</v>
       </c>
-      <c r="K90">
-        <f t="shared" si="13"/>
+      <c r="K90" s="9">
+        <f t="shared" si="27"/>
         <v>624.79999999999995</v>
       </c>
     </row>
@@ -7054,35 +9459,35 @@
       <c r="B91">
         <v>6800</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="4">
         <v>144.5</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="7">
         <v>1.008</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="4">
         <v>25.45</v>
       </c>
       <c r="F91" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>25.653600000000001</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="7">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="H91">
-        <f>($N$5*G91)*1000</f>
+      <c r="H91" s="8">
+        <f t="shared" si="25"/>
         <v>4.55</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="8">
         <v>2.66</v>
       </c>
-      <c r="J91">
-        <f>(I91/$N$9)*10^6</f>
+      <c r="J91" s="9">
+        <f t="shared" si="26"/>
         <v>266</v>
       </c>
-      <c r="K91">
-        <f t="shared" si="13"/>
+      <c r="K91" s="9">
+        <f t="shared" si="27"/>
         <v>532</v>
       </c>
     </row>
@@ -7091,35 +9496,35 @@
       <c r="B92">
         <v>6800</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="4">
         <v>147.80000000000001</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="7">
         <v>0.90800000000000003</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="4">
         <v>19.7</v>
       </c>
       <c r="F92" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>17.887599999999999</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="7">
         <v>0.06</v>
       </c>
-      <c r="H92">
-        <f>($N$5*G92)*1000</f>
+      <c r="H92" s="8">
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="8">
         <v>1.877</v>
       </c>
-      <c r="J92">
-        <f>(I92/$N$9)*10^6</f>
+      <c r="J92" s="9">
+        <f t="shared" si="26"/>
         <v>187.70000000000002</v>
       </c>
-      <c r="K92">
-        <f t="shared" si="13"/>
+      <c r="K92" s="9">
+        <f t="shared" si="27"/>
         <v>375.40000000000003</v>
       </c>
     </row>
@@ -7128,35 +9533,35 @@
       <c r="B93">
         <v>6800</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="4">
         <v>162.4</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="7">
         <v>0.80900000000000005</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="4">
         <v>15.1</v>
       </c>
       <c r="F93" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>12.2159</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="7">
         <v>3.9E-2</v>
       </c>
-      <c r="H93">
-        <f>($N$5*G93)*1000</f>
+      <c r="H93" s="8">
+        <f t="shared" si="25"/>
         <v>1.9500000000000002</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="8">
         <v>1.2649999999999999</v>
       </c>
-      <c r="J93">
-        <f>(I93/$N$9)*10^6</f>
+      <c r="J93" s="9">
+        <f t="shared" si="26"/>
         <v>126.49999999999999</v>
       </c>
-      <c r="K93">
-        <f t="shared" si="13"/>
+      <c r="K93" s="9">
+        <f t="shared" si="27"/>
         <v>252.99999999999997</v>
       </c>
     </row>
@@ -7165,35 +9570,35 @@
       <c r="B94">
         <v>6800</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="4">
         <v>181.6</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="7">
         <v>0.70499999999999996</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="4">
         <v>9.6</v>
       </c>
       <c r="F94" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>6.7679999999999989</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="7">
         <v>1.9E-2</v>
       </c>
-      <c r="H94">
-        <f>($N$5*G94)*1000</f>
+      <c r="H94" s="8">
+        <f t="shared" si="25"/>
         <v>0.95</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="8">
         <v>0.629</v>
       </c>
-      <c r="J94">
-        <f>(I94/$N$9)*10^6</f>
+      <c r="J94" s="9">
+        <f t="shared" si="26"/>
         <v>62.9</v>
       </c>
-      <c r="K94">
-        <f t="shared" si="13"/>
+      <c r="K94" s="9">
+        <f t="shared" si="27"/>
         <v>125.8</v>
       </c>
     </row>
@@ -7202,35 +9607,35 @@
       <c r="B95">
         <v>6800</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="4">
         <v>203.4</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="7">
         <v>0.60699999999999998</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="4">
         <v>3.7</v>
       </c>
       <c r="F95" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.2458999999999998</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H95">
-        <f>($N$5*G95)*1000</f>
+      <c r="H95" s="8">
+        <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="8">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J95">
-        <f>(I95/$N$9)*10^6</f>
+      <c r="J95" s="9">
+        <f t="shared" si="26"/>
         <v>8.4</v>
       </c>
-      <c r="K95">
-        <f t="shared" si="13"/>
+      <c r="K95" s="9">
+        <f t="shared" si="27"/>
         <v>16.8</v>
       </c>
     </row>
